--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/9438/School/Spring2020/CSCI5922/final_project/final_timothy_mason_csci5922_s20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A391F7E-F445-A041-B9F1-77C8E589A416}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8C657C-304C-2F48-802D-E6A29455D358}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{F58C6C7F-5855-FD4B-B1F8-9C76888EB29A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="3" xr2:uid="{F58C6C7F-5855-FD4B-B1F8-9C76888EB29A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Chart" sheetId="4" r:id="rId1"/>
-    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Train Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Hyperparm Train Results" sheetId="6" r:id="rId2"/>
+    <sheet name="Rep Data" sheetId="5" r:id="rId3"/>
+    <sheet name="Repeatability" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,12 +36,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>80k parms, feat. len. 252</t>
   </si>
   <si>
     <t>2.5M parms, feat. len. 252</t>
+  </si>
+  <si>
+    <t>2.5M parms, feat. len. 512</t>
+  </si>
+  <si>
+    <t>2.5M parms, feat. len. 1024</t>
+  </si>
+  <si>
+    <t>80k parms, feat. len. 512</t>
+  </si>
+  <si>
+    <t>80k parms, feat. len. 1024</t>
+  </si>
+  <si>
+    <t>2.5M, 1024, 100 Epoch, #1</t>
+  </si>
+  <si>
+    <t>2.5M, 1024, 100 Epoch, #2</t>
+  </si>
+  <si>
+    <t>2.5M, 1024, 100 Epoch, #3</t>
+  </si>
+  <si>
+    <t>2.5M, 1024, 100 Epoch, #4</t>
+  </si>
+  <si>
+    <t>2.5M, 1024, 100 Epoch, #5</t>
+  </si>
+  <si>
+    <t>2.5M, 252, 100 Epoch, #1</t>
+  </si>
+  <si>
+    <t>2.5M, 252, 100 Epoch, #2</t>
+  </si>
+  <si>
+    <t>2.5M, 252, 100 Epoch, #3</t>
+  </si>
+  <si>
+    <t>2.5M, 252, 100 Epoch, #4</t>
+  </si>
+  <si>
+    <t>2.5M, 252, 100 Epoch, #5</t>
   </si>
 </sst>
 </file>
@@ -112,62 +156,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>CRNN Training Performance (AUC)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -178,7 +167,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$A$1</c:f>
+              <c:f>'Train Data'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -213,7 +202,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Data!$A$2:$A$51</c:f>
+              <c:f>'Train Data'!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -373,7 +362,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6436-A74F-A0DA-D90AB1352F94}"/>
+              <c16:uniqueId val="{00000000-DFC1-E748-B40B-4E4A05468061}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -382,7 +371,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$B$1</c:f>
+              <c:f>'Train Data'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -417,7 +406,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$51</c:f>
+              <c:f>'Train Data'!$B$2:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -577,7 +566,823 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6436-A74F-A0DA-D90AB1352F94}"/>
+              <c16:uniqueId val="{00000001-DFC1-E748-B40B-4E4A05468061}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Train Data'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80k parms, feat. len. 512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Train Data'!$C$2:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.54969999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60150000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61550000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64280000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65490000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68269999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69610000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.70069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.71150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.72230000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.72970000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.74690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75249999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.76659999999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.77210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.78269999999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.79110000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.79749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.80010000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.80230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.80800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.81200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.81699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.81979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.8226</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.82630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.82450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.82979999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.83309999999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.83599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.83560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.83740000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.84179999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.84099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.84519999999999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.84670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.84530000000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.84940000000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.84930000000000005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.85129999999999995</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.85160000000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.85489999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.85599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.85399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.85650000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.85940000000000005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.8629</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.86380000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DFC1-E748-B40B-4E4A05468061}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Train Data'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.5M parms, feat. len. 512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Train Data'!$D$2:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.59989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63790000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65980000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67510000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68610000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71319999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7147</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.73270000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.74380000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.74960000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.77139999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.79320000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.80840000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.81659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.83020000000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.83789999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.84319999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.84870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.85129999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.85770000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.86060000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.86539999999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.86839999999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.87390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.876</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.88300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.8841</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.88700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.89149999999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.89600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.89990000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.90549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.90890000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.91249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.91590000000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.91820000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.9214</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.9264</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.92930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.93279999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.93479999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.93759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.94020000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.94279999999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.94520000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.94950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.95009999999999994</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.95250000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DFC1-E748-B40B-4E4A05468061}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Train Data'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80k parms, feat. len. 1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Train Data'!$E$2:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.52400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57779999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59409999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6129</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62209999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62429999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.66100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66910000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68010000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.70189999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.71279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.73229999999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.74790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.75460000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.75780000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.76219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.78120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.79069999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.78649999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.80069999999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.79969999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.80740000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.81459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.81489999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.81579999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.81779999999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.82379999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.82699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.83289999999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.83189999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.83499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.83520000000000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.84240000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.84240000000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.84279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.84730000000000005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.84850000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.84930000000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.8528</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.85770000000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.8609</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.85799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.85780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.86550000000000005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.8659</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.86660000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DFC1-E748-B40B-4E4A05468061}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Train Data'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.5M parms, feat. len. 1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Train Data'!$F$2:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.58409999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61660000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62780000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65490000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65880000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70540000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73350000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.74050000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.77949999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.79900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.81859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.82420000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.83950000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8488</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.86419999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.87219999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.8821</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.88570000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.89590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9032</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9083</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.91420000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.91830000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.92359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.9244</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.92879999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.93720000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.94230000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.94369999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.94889999999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.95509999999999995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.95679999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.95930000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.96499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.96489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.96719999999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.97109999999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.97199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.97440000000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.97650000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.97960000000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.98140000000000005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.98450000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.98460000000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.98550000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.98719999999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.98809999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DFC1-E748-B40B-4E4A05468061}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -704,6 +1509,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
+          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -827,17 +1633,3803 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.81331092823252693"/>
-          <c:y val="0.31755826989069708"/>
-          <c:w val="0.1852237560219285"/>
-          <c:h val="6.8226281893026722E-2"/>
+          <c:x val="0.74737171968302107"/>
+          <c:y val="0.59046148737904203"/>
+          <c:w val="0.19190559582161179"/>
+          <c:h val="0.20467884567908015"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
       <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.8618744918988816E-2"/>
+          <c:y val="2.021505314728481E-2"/>
+          <c:w val="0.90767899293348597"/>
+          <c:h val="0.88255404303450546"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rep Data'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.5M, 1024, 100 Epoch, #1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rep Data'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.58030000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62780000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65690000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66259999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69220000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71289999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75270000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.77980000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.80940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.81669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8327</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.84409999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.85429999999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.86939999999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.87780000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.89219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.89410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.90200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9083</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.91569999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.92120000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.92610000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.93149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.93789999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.94240000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.94599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.95279999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.95540000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.95830000000000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.96209999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.96379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.96619999999999995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.96799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.97360000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.97509999999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.97629999999999995</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.97760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.98219999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.98219999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.98380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.98470000000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9889</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.9899</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.98980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.9909</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.9919</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.99270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.99309999999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.99370000000000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.99419999999999997</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.99509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.99560000000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.99650000000000005</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.99680000000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.99619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.99750000000000005</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.99770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.99770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.99790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.99770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.99809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.99850000000000005</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.99870000000000003</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.99780000000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.99829999999999997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.99870000000000003</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.99870000000000003</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.99880000000000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.99880000000000002</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.99850000000000005</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.99909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.99919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.99909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.99890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.99909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.99929999999999997</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.99929999999999997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.99929999999999997</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.99919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.99919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.99909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.99939999999999996</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.99929999999999997</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.99939999999999996</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99950000000000006</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99939999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EEF1-2C48-950B-0C13EBEF931D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rep Data'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.5M, 1024, 100 Epoch, #2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rep Data'!$B$2:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.57889999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61029999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62660000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63849999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69320000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69910000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7238</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.76060000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78549999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.80900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8296</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.84240000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.85429999999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.86470000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.87890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.87990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.89339999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.89829999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.90800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.91600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.92269999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.92630000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.93910000000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.94110000000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.94630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.94969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.95240000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.95379999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.95940000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.96230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.96430000000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.96699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.97070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.97330000000000005</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.97650000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.97889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.97889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.98180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.98340000000000005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.98429999999999995</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.98619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.98719999999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.98899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.99019999999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.99019999999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.99080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.99060000000000004</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.99199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.99250000000000005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.99409999999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.99409999999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.99470000000000003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.99509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.99560000000000004</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.99550000000000005</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.99670000000000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.99690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.99629999999999996</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.99650000000000005</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.99719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.99739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.99760000000000004</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.99780000000000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.99790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.99819999999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.99839999999999995</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.99839999999999995</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.99850000000000005</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.99870000000000003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.99839999999999995</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.99890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.99870000000000003</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.99870000000000003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.99860000000000004</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.99880000000000002</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.99880000000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.99860000000000004</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.99870000000000003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.99909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.99939999999999996</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.99929999999999997</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.99929999999999997</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.99950000000000006</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.99950000000000006</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.99939999999999996</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.99939999999999996</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.99950000000000006</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.99939999999999996</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.99950000000000006</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.99939999999999996</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.99929999999999997</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.99939999999999996</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99960000000000004</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99939999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EEF1-2C48-950B-0C13EBEF931D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rep Data'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.5M, 1024, 100 Epoch, #3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rep Data'!$C$2:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.57169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67789999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68840000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70589999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.74180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.76290000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.7893</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.80310000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.81930000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.82669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.84860000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8528</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.86539999999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.87409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.88190000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.88329999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.8982</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.91459999999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.91639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.92259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.92800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.93220000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.9365</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.94259999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.94679999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.95099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.95269999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.96150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.96199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.96109999999999995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.96630000000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.96950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.97209999999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.9768</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.97650000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.97809999999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.98070000000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.9819</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.98360000000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.98570000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.98570000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.98670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.9889</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.98870000000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.99009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.99139999999999995</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.99219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.99209999999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.99319999999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.99380000000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.99350000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.99360000000000004</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.99509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.99529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.99619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.99629999999999996</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.99690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.99650000000000005</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.99709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.997</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.99719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.99739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.99719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.99760000000000004</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.99760000000000004</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.99790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.99829999999999997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.99809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.99839999999999995</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.99860000000000004</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.99870000000000003</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.99860000000000004</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.99870000000000003</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.99880000000000002</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.99839999999999995</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.99880000000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.99890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.99880000000000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.99909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.99909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.99909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.99919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.99909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.99929999999999997</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.99939999999999996</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.99919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.99929999999999997</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.99919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.99939999999999996</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99960000000000004</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99960000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EEF1-2C48-950B-0C13EBEF931D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rep Data'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.5M, 1024, 100 Epoch, #4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rep Data'!$D$2:$D$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.59550000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61129999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61539999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64349999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65349999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67010000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69240000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72209999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.75619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.77710000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.79810000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.81469999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.83020000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.84030000000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.84719999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.86109999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.87139999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.87770000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.88229999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.88749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.89510000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.90149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9093</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.91639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9214</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.92889999999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.93489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.93720000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.94320000000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.94650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.9456</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.95399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.95589999999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.96250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.96209999999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.96379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.96750000000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.97089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.9708</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.97489999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.9758</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.97870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.97940000000000005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.98250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.98280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.98329999999999995</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.98509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.98619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.98839999999999995</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.98970000000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.99019999999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.99109999999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.99119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.9929</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.99250000000000005</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.99250000000000005</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.99370000000000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.99409999999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.99470000000000003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.99450000000000005</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.99529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.99539999999999995</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.996</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.996</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.99629999999999996</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.99670000000000003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.99639999999999995</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.99619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.99750000000000005</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.99729999999999996</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.99770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.99770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.99739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.99790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.99770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.99819999999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.99839999999999995</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.99839999999999995</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.99850000000000005</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.99839999999999995</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.99860000000000004</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.99860000000000004</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.99880000000000002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.99880000000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.99919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.99909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.99919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.99909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.99850000000000005</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.99909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.99909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.99919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.99909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99939999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EEF1-2C48-950B-0C13EBEF931D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rep Data'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.5M, 1024, 100 Epoch, #5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rep Data'!$E$2:$E$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.57940000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61750000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62380000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64870000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65939999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71530000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.71540000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.77590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.78820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.81240000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.82779999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83930000000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85640000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.87070000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.879</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.88829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.89249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.89490000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.90759999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.90990000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.91069999999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.92030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.92479999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.9284</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.93230000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.93769999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.93899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.9456</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.94930000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.95309999999999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.95399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.95809999999999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.96089999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.96319999999999995</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.96760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.96909999999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.97299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.97529999999999994</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.97570000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.97829999999999995</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.98019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.97989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.98270000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.98540000000000005</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.98519999999999996</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.98609999999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.98750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.98819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.99019999999999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.99070000000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.99260000000000004</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.99239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.99380000000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.99390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.99450000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.99439999999999995</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.99470000000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.995</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.99609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.99660000000000004</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.99619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.99650000000000005</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.99690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.99639999999999995</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.99719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.99680000000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.99739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.99790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.99770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.99839999999999995</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.99860000000000004</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.99870000000000003</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.99860000000000004</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.99860000000000004</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.99870000000000003</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.99890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.99890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.99890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.99909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.99909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.99929999999999997</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.99919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.99909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.99909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.99919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99929999999999997</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99909999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EEF1-2C48-950B-0C13EBEF931D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rep Data'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.5M, 252, 100 Epoch, #1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rep Data'!$F$2:$F$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.59870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68159999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70209999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70940000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72719999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.74270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.74970000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.76770000000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.79779999999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.80930000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.82320000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.82889999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.84160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.85129999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.85070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.85750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.86280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.86829999999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.873</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.874</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.87860000000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.88429999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.88590000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.89239999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.8952</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.89770000000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.90229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.90659999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.90990000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.91279999999999994</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.91869999999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.92120000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.92169999999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.9264</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.92969999999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.93479999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.93579999999999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.93930000000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.94210000000000005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.94699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.94969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.95020000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.95320000000000005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.95550000000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.95679999999999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.96030000000000004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.96120000000000005</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.9627</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.96519999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.96689999999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.96899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.96970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.97060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.97230000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.97270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.97550000000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.97640000000000005</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.97789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.97889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.97989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.98050000000000004</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.98270000000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.98360000000000003</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.98409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.98540000000000005</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.98580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.98619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.98709999999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.98770000000000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.98839999999999995</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.98929999999999996</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.98929999999999996</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.98950000000000005</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.99039999999999995</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.9909</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.99180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.99129999999999996</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.99260000000000004</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.9929</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.99319999999999997</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.99319999999999997</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.99329999999999996</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.99339999999999995</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.99370000000000003</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.99470000000000003</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.995</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.99519999999999997</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.99529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99560000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-EEF1-2C48-950B-0C13EBEF931D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rep Data'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.5M, 252, 100 Epoch, #2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rep Data'!$G$2:$G$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.59560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65449999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6673</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6804</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68879999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69889999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70520000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71050000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.71989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72609999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.73719999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.74080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.755</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7681</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.79369999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.80489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.81410000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.82969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.83660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.84840000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.85489999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.85960000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.86480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.86890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.87309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.87929999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.88539999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.88700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.88990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.89539999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.90159999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.90580000000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.90810000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.91339999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.91590000000000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.92169999999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.92330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.9274</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.93140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.93310000000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.93879999999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.9415</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.9446</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.94769999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.94989999999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.95099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.95430000000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.95709999999999995</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.95860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.95799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.96150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.96450000000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.96519999999999995</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.96709999999999996</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.97019999999999995</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.97119999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.97319999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.97330000000000005</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.97550000000000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.97819999999999996</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.97809999999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.98019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.98060000000000003</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.98280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.98340000000000005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.98440000000000005</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.9849</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.98509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.98570000000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.9879</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.98829999999999996</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.98909999999999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.98919999999999997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.98970000000000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.99080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.99129999999999996</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.99170000000000003</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.99180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.99219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.99270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.99339999999999995</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.99339999999999995</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.99360000000000004</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.99419999999999997</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.99460000000000004</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.99470000000000003</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.99490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.99519999999999997</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.99509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.99560000000000004</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.99580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.99550000000000005</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.99539999999999995</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.99580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99629999999999996</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99670000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-EEF1-2C48-950B-0C13EBEF931D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rep Data'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.5M, 252, 100 Epoch, #3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rep Data'!$H$2:$H$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.60319999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63839999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67110000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6784</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71819999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7177</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.74280000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75519999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.77100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.79079999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.80610000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.81720000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.82850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.83979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.84089999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.85070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.85389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.85660000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.86260000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.86970000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.87309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.87829999999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.88039999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.88600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.88900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.89259999999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.89359999999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.90090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.90690000000000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.90820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.91249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.91710000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.92020000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.92569999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.93279999999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.93540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.93759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.94030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.94420000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.94589999999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.94979999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.95330000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.95379999999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.95660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.95850000000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.96109999999999995</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.96340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.96519999999999995</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.96650000000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.96789999999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.96960000000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.97130000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.97240000000000004</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.97409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.97540000000000004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.97729999999999995</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.97770000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.97950000000000004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.97970000000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.97970000000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.98129999999999995</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.98260000000000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.98370000000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.98429999999999995</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.98570000000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.98570000000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.98650000000000004</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.98760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.98809999999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.98899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.98929999999999996</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.99009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.99009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.99039999999999995</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.99080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.9919</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.99270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.99229999999999996</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.99280000000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.99329999999999996</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.99360000000000004</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.99429999999999996</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.99439999999999995</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.99490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.99550000000000005</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.99539999999999995</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.99529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.99560000000000004</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.99609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.99609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.99609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99639999999999995</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99680000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-EEF1-2C48-950B-0C13EBEF931D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rep Data'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.5M, 252, 100 Epoch, #4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rep Data'!$I$2:$I$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.59360000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64859999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65890000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66890000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68510000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70240000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.71530000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.73680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.75229999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7681</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.77929999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.79649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8135</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.82430000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.83420000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.84509999999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.85060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.85670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.86129999999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.86860000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.87090000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.87549999999999994</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.87739999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.88580000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.88749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.89029999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.89590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.9012</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.90490000000000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.90810000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.9123</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.91490000000000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.91669999999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.91930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.92369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.92849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.93140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.93500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.93810000000000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.94140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.94269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.94640000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.94979999999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.95150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.95320000000000005</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.9546</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.95809999999999995</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.9627</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.96360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.96450000000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.96730000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.96960000000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.97050000000000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.9718</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.97309999999999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.97309999999999997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.97589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.97809999999999997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.97950000000000004</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.98009999999999997</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.98099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.98229999999999995</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.98240000000000005</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.98380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.98450000000000004</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.98570000000000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.98650000000000004</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.98750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.98870000000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.98880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.98919999999999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.98939999999999995</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.9909</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.99050000000000005</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.99129999999999996</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.99160000000000004</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.99219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.99219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.99239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.99350000000000005</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.99339999999999995</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.99409999999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.99360000000000004</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.99409999999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.99490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.99450000000000005</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.99519999999999997</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.995</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.99550000000000005</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.99590000000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.99550000000000005</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-EEF1-2C48-950B-0C13EBEF931D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rep Data'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.5M, 252, 100 Epoch, #5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rep Data'!$J$2:$J$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.60119999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62870000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67069999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69520000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71709999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7248</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73229999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.745</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.75880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.77400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.78910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.80720000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.81930000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.8276</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.84619999999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.85209999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.85589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.86009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.86509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.86860000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.87219999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.87970000000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.88390000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.88900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.89339999999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.89780000000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.89900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.90559999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.90759999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.91269999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.91869999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.9204</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.92310000000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.92689999999999995</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.92900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.93179999999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.93510000000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.93700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.94099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.94420000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.9476</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.94889999999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.95099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.95299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.95389999999999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.95740000000000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.9607</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.96160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.96330000000000005</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.96399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.96719999999999995</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.96840000000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.96989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.97240000000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.97209999999999996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.9748</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.9748</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.97689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.9798</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.97960000000000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.98050000000000004</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.98229999999999995</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.98350000000000004</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.98419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.98460000000000003</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.98509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.98580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.98680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.98750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.98819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.98870000000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.98919999999999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.98960000000000004</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.99029999999999996</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.99060000000000004</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.99139999999999995</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.99099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.99219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.99219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.99270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.99319999999999997</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.9929</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.99390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.99429999999999996</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.99419999999999997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.99480000000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.99480000000000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.99429999999999996</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.99529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.99550000000000005</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.99560000000000004</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.99560000000000004</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99590000000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99639999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-EEF1-2C48-950B-0C13EBEF931D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1417211888"/>
+        <c:axId val="1532299280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1417211888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Epoch</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1532299280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1532299280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>AUC</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1417211888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.76202487713846667"/>
+          <c:y val="0.12551526499149135"/>
+          <c:w val="0.18657196188702208"/>
+          <c:h val="0.34113140946513359"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -902,6 +5494,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1444,8 +6076,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2A2B5576-4816-574D-A0B4-3BCABBFB4FDA}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9A7358FA-04AA-594E-965B-C72646E333D8}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="188" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{01BBAACC-9359-C640-8BD0-3079261512CA}">
   <sheetPr/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="188" workbookViewId="0" zoomToFit="1"/>
@@ -1465,7 +6611,40 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D875C9-9C49-B341-A345-10AFE7852194}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{867DE485-6B14-4847-B190-D658FF781C48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8667074" cy="6282447"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70C7CD88-893C-6C4B-9583-BF1ADF520E7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1489,11 +6668,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7528F41-804E-7E48-9733-826563A237B7}" name="Table1" displayName="Table1" ref="A1:B51" totalsRowShown="0">
-  <autoFilter ref="A1:B51" xr:uid="{79D92982-3207-7049-8A9E-007E2456E835}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7528F41-804E-7E48-9733-826563A237B7}" name="Table1" displayName="Table1" ref="A1:F51" totalsRowShown="0">
+  <autoFilter ref="A1:F51" xr:uid="{79D92982-3207-7049-8A9E-007E2456E835}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{827702AC-DB8D-5643-BCDA-8BB05A2BF87E}" name="80k parms, feat. len. 252"/>
     <tableColumn id="3" xr3:uid="{F45270DC-9EB0-F741-A3FD-CD70B930B5C0}" name="2.5M parms, feat. len. 252"/>
+    <tableColumn id="7" xr3:uid="{C68F05C9-4F45-6741-B191-781D16B5FC04}" name="80k parms, feat. len. 512"/>
+    <tableColumn id="4" xr3:uid="{77683BC3-BF26-224D-8708-03A367D12606}" name="2.5M parms, feat. len. 512"/>
+    <tableColumn id="8" xr3:uid="{C661BF7A-415F-7148-8159-ABF5468081A4}" name="80k parms, feat. len. 1024"/>
+    <tableColumn id="5" xr3:uid="{161FB794-8ACB-1E42-9A1D-2D1530D1DDA0}" name="2.5M parms, feat. len. 1024"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{77B58BBF-E3CE-EA4A-B666-21C4B2546EEA}" name="Table13" displayName="Table13" ref="A1:J102" totalsRowShown="0">
+  <autoFilter ref="A1:J102" xr:uid="{79D92982-3207-7049-8A9E-007E2456E835}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{B3427008-7793-384E-8AB9-5524BC8848C0}" name="2.5M, 1024, 100 Epoch, #1"/>
+    <tableColumn id="3" xr3:uid="{024E4631-B962-DC4A-A43B-884355ECDDBE}" name="2.5M, 1024, 100 Epoch, #2"/>
+    <tableColumn id="7" xr3:uid="{C3A54F55-FD26-404D-B88A-D4237149B25E}" name="2.5M, 1024, 100 Epoch, #3"/>
+    <tableColumn id="4" xr3:uid="{87A99A2E-F145-D74F-9895-9669F29DE6A6}" name="2.5M, 1024, 100 Epoch, #4"/>
+    <tableColumn id="8" xr3:uid="{C3771930-0C4E-B347-B345-71E8F2D848A6}" name="2.5M, 1024, 100 Epoch, #5"/>
+    <tableColumn id="5" xr3:uid="{9702DCD8-ABB6-F244-87C2-83A39C1954BB}" name="2.5M, 252, 100 Epoch, #1"/>
+    <tableColumn id="10" xr3:uid="{B03179F7-3B20-CF4B-99E8-7480CD8F55B3}" name="2.5M, 252, 100 Epoch, #2"/>
+    <tableColumn id="11" xr3:uid="{B8FFB89E-DEE5-C64E-BC67-3D8C55312FB5}" name="2.5M, 252, 100 Epoch, #3"/>
+    <tableColumn id="12" xr3:uid="{AFD3C687-8B84-BA4D-B578-589DF89C086B}" name="2.5M, 252, 100 Epoch, #4"/>
+    <tableColumn id="13" xr3:uid="{B4FB0CF4-5230-714A-9D90-7EAD82E03C84}" name="2.5M, 252, 100 Epoch, #5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1796,423 +6998,4299 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBADDFA-B9AD-104F-ABE8-4A390A43CAF6}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0.56420000000000003</v>
       </c>
       <c r="B2">
         <v>0.59440000000000004</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>0.54969999999999997</v>
+      </c>
+      <c r="D2">
+        <v>0.59989999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="F2">
+        <v>0.58409999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>0.6008</v>
       </c>
       <c r="B3">
         <v>0.63759999999999994</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0.60150000000000003</v>
+      </c>
+      <c r="D3">
+        <v>0.63790000000000002</v>
+      </c>
+      <c r="E3">
+        <v>0.57779999999999998</v>
+      </c>
+      <c r="F3">
+        <v>0.61660000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>0.6139</v>
       </c>
       <c r="B4">
         <v>0.65280000000000005</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>0.61550000000000005</v>
+      </c>
+      <c r="D4">
+        <v>0.65980000000000005</v>
+      </c>
+      <c r="E4">
+        <v>0.59409999999999996</v>
+      </c>
+      <c r="F4">
+        <v>0.62780000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>0.62570000000000003</v>
       </c>
       <c r="B5">
         <v>0.66720000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0.62729999999999997</v>
+      </c>
+      <c r="D5">
+        <v>0.67510000000000003</v>
+      </c>
+      <c r="E5">
+        <v>0.6129</v>
+      </c>
+      <c r="F5">
+        <v>0.65490000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>0.64529999999999998</v>
       </c>
       <c r="B6">
         <v>0.67920000000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>0.64280000000000004</v>
+      </c>
+      <c r="D6">
+        <v>0.68610000000000004</v>
+      </c>
+      <c r="E6">
+        <v>0.62209999999999999</v>
+      </c>
+      <c r="F6">
+        <v>0.65880000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>0.65720000000000001</v>
       </c>
       <c r="B7">
         <v>0.68830000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>0.65490000000000004</v>
+      </c>
+      <c r="D7">
+        <v>0.68859999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.62429999999999997</v>
+      </c>
+      <c r="F7">
+        <v>0.67130000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>0.67110000000000003</v>
       </c>
       <c r="B8">
         <v>0.70050000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D8">
+        <v>0.7</v>
+      </c>
+      <c r="E8">
+        <v>0.62419999999999998</v>
+      </c>
+      <c r="F8">
+        <v>0.70540000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>0.68220000000000003</v>
       </c>
       <c r="B9">
         <v>0.70579999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <v>0.68269999999999997</v>
+      </c>
+      <c r="D9">
+        <v>0.71319999999999995</v>
+      </c>
+      <c r="E9">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="F9">
+        <v>0.70199999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0.68989999999999996</v>
       </c>
       <c r="B10">
         <v>0.71289999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <v>0.69610000000000005</v>
+      </c>
+      <c r="D10">
+        <v>0.7147</v>
+      </c>
+      <c r="E10">
+        <v>0.65239999999999998</v>
+      </c>
+      <c r="F10">
+        <v>0.73350000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>0.69989999999999997</v>
       </c>
       <c r="B11">
         <v>0.72299999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <v>0.70069999999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.73270000000000002</v>
+      </c>
+      <c r="E11">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="F11">
+        <v>0.74050000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>0.7036</v>
       </c>
       <c r="B12">
         <v>0.73980000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <v>0.71150000000000002</v>
+      </c>
+      <c r="D12">
+        <v>0.74380000000000002</v>
+      </c>
+      <c r="E12">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="F12">
+        <v>0.77949999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>0.71740000000000004</v>
       </c>
       <c r="B13">
         <v>0.74990000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <v>0.72230000000000005</v>
+      </c>
+      <c r="D13">
+        <v>0.74960000000000004</v>
+      </c>
+      <c r="E13">
+        <v>0.66910000000000003</v>
+      </c>
+      <c r="F13">
+        <v>0.79900000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>0.72840000000000005</v>
       </c>
       <c r="B14">
         <v>0.77139999999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <v>0.72970000000000002</v>
+      </c>
+      <c r="D14">
+        <v>0.77139999999999997</v>
+      </c>
+      <c r="E14">
+        <v>0.68010000000000004</v>
+      </c>
+      <c r="F14">
+        <v>0.81859999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>0.74250000000000005</v>
       </c>
       <c r="B15">
         <v>0.78949999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <v>0.74690000000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.79320000000000002</v>
+      </c>
+      <c r="E15">
+        <v>0.70189999999999997</v>
+      </c>
+      <c r="F15">
+        <v>0.82420000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>0.74860000000000004</v>
       </c>
       <c r="B16">
         <v>0.80379999999999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>0.75249999999999995</v>
+      </c>
+      <c r="D16">
+        <v>0.80840000000000001</v>
+      </c>
+      <c r="E16">
+        <v>0.71279999999999999</v>
+      </c>
+      <c r="F16">
+        <v>0.83950000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>0.75829999999999997</v>
       </c>
       <c r="B17">
         <v>0.81730000000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0.76659999999999995</v>
+      </c>
+      <c r="D17">
+        <v>0.81659999999999999</v>
+      </c>
+      <c r="E17">
+        <v>0.73229999999999995</v>
+      </c>
+      <c r="F17">
+        <v>0.8488</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>0.76519999999999999</v>
       </c>
       <c r="B18">
         <v>0.82440000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0.77210000000000001</v>
+      </c>
+      <c r="D18">
+        <v>0.83020000000000005</v>
+      </c>
+      <c r="E18">
+        <v>0.74790000000000001</v>
+      </c>
+      <c r="F18">
+        <v>0.86419999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>0.77049999999999996</v>
       </c>
       <c r="B19">
         <v>0.82930000000000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0.78269999999999995</v>
+      </c>
+      <c r="D19">
+        <v>0.83789999999999998</v>
+      </c>
+      <c r="E19">
+        <v>0.75460000000000005</v>
+      </c>
+      <c r="F19">
+        <v>0.87219999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>0.7802</v>
       </c>
       <c r="B20">
         <v>0.84319999999999995</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <v>0.79110000000000003</v>
+      </c>
+      <c r="D20">
+        <v>0.84319999999999995</v>
+      </c>
+      <c r="E20">
+        <v>0.75780000000000003</v>
+      </c>
+      <c r="F20">
+        <v>0.8821</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>0.78739999999999999</v>
       </c>
       <c r="B21">
         <v>0.84860000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <v>0.79749999999999999</v>
+      </c>
+      <c r="D21">
+        <v>0.84870000000000001</v>
+      </c>
+      <c r="E21">
+        <v>0.76219999999999999</v>
+      </c>
+      <c r="F21">
+        <v>0.88570000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>0.79369999999999996</v>
       </c>
       <c r="B22">
         <v>0.85229999999999995</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <v>0.80010000000000003</v>
+      </c>
+      <c r="D22">
+        <v>0.85129999999999995</v>
+      </c>
+      <c r="E22">
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="F22">
+        <v>0.89590000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>0.80149999999999999</v>
       </c>
       <c r="B23">
         <v>0.85860000000000003</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <v>0.80230000000000001</v>
+      </c>
+      <c r="D23">
+        <v>0.85770000000000002</v>
+      </c>
+      <c r="E23">
+        <v>0.79069999999999996</v>
+      </c>
+      <c r="F23">
+        <v>0.9032</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>0.80589999999999995</v>
       </c>
       <c r="B24">
         <v>0.86180000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="D24">
+        <v>0.86060000000000003</v>
+      </c>
+      <c r="E24">
+        <v>0.78649999999999998</v>
+      </c>
+      <c r="F24">
+        <v>0.9083</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>0.80820000000000003</v>
       </c>
       <c r="B25">
         <v>0.86509999999999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="D25">
+        <v>0.86539999999999995</v>
+      </c>
+      <c r="E25">
+        <v>0.80069999999999997</v>
+      </c>
+      <c r="F25">
+        <v>0.91420000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>0.8125</v>
       </c>
       <c r="B26">
         <v>0.87119999999999997</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="D26">
+        <v>0.86839999999999995</v>
+      </c>
+      <c r="E26">
+        <v>0.79969999999999997</v>
+      </c>
+      <c r="F26">
+        <v>0.91830000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>0.81579999999999997</v>
       </c>
       <c r="B27">
         <v>0.87270000000000003</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0.81979999999999997</v>
+      </c>
+      <c r="D27">
+        <v>0.87390000000000001</v>
+      </c>
+      <c r="E27">
+        <v>0.80740000000000001</v>
+      </c>
+      <c r="F27">
+        <v>0.92359999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>0.81830000000000003</v>
       </c>
       <c r="B28">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <v>0.8226</v>
+      </c>
+      <c r="D28">
+        <v>0.876</v>
+      </c>
+      <c r="E28">
+        <v>0.81459999999999999</v>
+      </c>
+      <c r="F28">
+        <v>0.9244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>0.82230000000000003</v>
       </c>
       <c r="B29">
         <v>0.88449999999999995</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <v>0.82630000000000003</v>
+      </c>
+      <c r="D29">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="E29">
+        <v>0.81489999999999996</v>
+      </c>
+      <c r="F29">
+        <v>0.92879999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>0.82540000000000002</v>
       </c>
       <c r="B30">
         <v>0.8871</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <v>0.82450000000000001</v>
+      </c>
+      <c r="D30">
+        <v>0.8841</v>
+      </c>
+      <c r="E30">
+        <v>0.81579999999999997</v>
+      </c>
+      <c r="F30">
+        <v>0.93720000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>0.82750000000000001</v>
       </c>
       <c r="B31">
         <v>0.89239999999999997</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <v>0.82979999999999998</v>
+      </c>
+      <c r="D31">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="E31">
+        <v>0.81779999999999997</v>
+      </c>
+      <c r="F31">
+        <v>0.94230000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>0.8306</v>
       </c>
       <c r="B32">
         <v>0.89529999999999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <v>0.83309999999999995</v>
+      </c>
+      <c r="D32">
+        <v>0.89149999999999996</v>
+      </c>
+      <c r="E32">
+        <v>0.82379999999999998</v>
+      </c>
+      <c r="F32">
+        <v>0.94369999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>0.83299999999999996</v>
       </c>
       <c r="B33">
         <v>0.8992</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="D33">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="E33">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="F33">
+        <v>0.94889999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>0.83699999999999997</v>
       </c>
       <c r="B34">
         <v>0.90329999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <v>0.83560000000000001</v>
+      </c>
+      <c r="D34">
+        <v>0.89990000000000003</v>
+      </c>
+      <c r="E34">
+        <v>0.83289999999999997</v>
+      </c>
+      <c r="F34">
+        <v>0.95509999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>0.83450000000000002</v>
       </c>
       <c r="B35">
         <v>0.90810000000000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35">
+        <v>0.83740000000000003</v>
+      </c>
+      <c r="D35">
+        <v>0.90549999999999997</v>
+      </c>
+      <c r="E35">
+        <v>0.83189999999999997</v>
+      </c>
+      <c r="F35">
+        <v>0.95679999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>0.83689999999999998</v>
       </c>
       <c r="B36">
         <v>0.91039999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36">
+        <v>0.84179999999999999</v>
+      </c>
+      <c r="D36">
+        <v>0.90890000000000004</v>
+      </c>
+      <c r="E36">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F36">
+        <v>0.95930000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>0.83720000000000006</v>
       </c>
       <c r="B37">
         <v>0.91510000000000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="D37">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="E37">
+        <v>0.83520000000000005</v>
+      </c>
+      <c r="F37">
+        <v>0.96499999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>0.84260000000000002</v>
       </c>
       <c r="B38">
         <v>0.9194</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38">
+        <v>0.84519999999999995</v>
+      </c>
+      <c r="D38">
+        <v>0.91590000000000005</v>
+      </c>
+      <c r="E38">
+        <v>0.84240000000000004</v>
+      </c>
+      <c r="F38">
+        <v>0.96489999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>0.84199999999999997</v>
       </c>
       <c r="B39">
         <v>0.92249999999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39">
+        <v>0.84670000000000001</v>
+      </c>
+      <c r="D39">
+        <v>0.91820000000000002</v>
+      </c>
+      <c r="E39">
+        <v>0.84240000000000004</v>
+      </c>
+      <c r="F39">
+        <v>0.96719999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>0.84299999999999997</v>
       </c>
       <c r="B40">
         <v>0.92630000000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40">
+        <v>0.84530000000000005</v>
+      </c>
+      <c r="D40">
+        <v>0.9214</v>
+      </c>
+      <c r="E40">
+        <v>0.84279999999999999</v>
+      </c>
+      <c r="F40">
+        <v>0.97109999999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>0.84840000000000004</v>
       </c>
       <c r="B41">
         <v>0.92820000000000003</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41">
+        <v>0.84940000000000004</v>
+      </c>
+      <c r="D41">
+        <v>0.9264</v>
+      </c>
+      <c r="E41">
+        <v>0.84730000000000005</v>
+      </c>
+      <c r="F41">
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>0.84950000000000003</v>
       </c>
       <c r="B42">
         <v>0.93179999999999996</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0.84930000000000005</v>
+      </c>
+      <c r="D42">
+        <v>0.92930000000000001</v>
+      </c>
+      <c r="E42">
+        <v>0.84850000000000003</v>
+      </c>
+      <c r="F42">
+        <v>0.97440000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>0.85029999999999994</v>
       </c>
       <c r="B43">
         <v>0.93469999999999998</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43">
+        <v>0.85129999999999995</v>
+      </c>
+      <c r="D43">
+        <v>0.93279999999999996</v>
+      </c>
+      <c r="E43">
+        <v>0.84930000000000005</v>
+      </c>
+      <c r="F43">
+        <v>0.97650000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>0.85019999999999996</v>
       </c>
       <c r="B44">
         <v>0.93930000000000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44">
+        <v>0.85160000000000002</v>
+      </c>
+      <c r="D44">
+        <v>0.93479999999999996</v>
+      </c>
+      <c r="E44">
+        <v>0.8528</v>
+      </c>
+      <c r="F44">
+        <v>0.97960000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>0.85070000000000001</v>
       </c>
       <c r="B45">
         <v>0.94140000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0.85489999999999999</v>
+      </c>
+      <c r="D45">
+        <v>0.93759999999999999</v>
+      </c>
+      <c r="E45">
+        <v>0.85770000000000002</v>
+      </c>
+      <c r="F45">
+        <v>0.98140000000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>0.85399999999999998</v>
       </c>
       <c r="B46">
         <v>0.94430000000000003</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="D46">
+        <v>0.94020000000000004</v>
+      </c>
+      <c r="E46">
+        <v>0.8609</v>
+      </c>
+      <c r="F46">
+        <v>0.98450000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>0.85309999999999997</v>
       </c>
       <c r="B47">
         <v>0.94779999999999998</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="D47">
+        <v>0.94279999999999997</v>
+      </c>
+      <c r="E47">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="F47">
+        <v>0.98460000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>0.85209999999999997</v>
       </c>
       <c r="B48">
         <v>0.94889999999999997</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48">
+        <v>0.85650000000000004</v>
+      </c>
+      <c r="D48">
+        <v>0.94520000000000004</v>
+      </c>
+      <c r="E48">
+        <v>0.85780000000000001</v>
+      </c>
+      <c r="F48">
+        <v>0.98550000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>0.85640000000000005</v>
       </c>
       <c r="B49">
         <v>0.95250000000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49">
+        <v>0.85940000000000005</v>
+      </c>
+      <c r="D49">
+        <v>0.94950000000000001</v>
+      </c>
+      <c r="E49">
+        <v>0.86550000000000005</v>
+      </c>
+      <c r="F49">
+        <v>0.98719999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>0.8579</v>
       </c>
       <c r="B50">
         <v>0.95430000000000004</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50">
+        <v>0.8629</v>
+      </c>
+      <c r="D50">
+        <v>0.95009999999999994</v>
+      </c>
+      <c r="E50">
+        <v>0.8659</v>
+      </c>
+      <c r="F50">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>0.8629</v>
       </c>
       <c r="B51">
         <v>0.95430000000000004</v>
+      </c>
+      <c r="C51">
+        <v>0.86380000000000001</v>
+      </c>
+      <c r="D51">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="E51">
+        <v>0.86660000000000004</v>
+      </c>
+      <c r="F51">
+        <v>0.98809999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9B6F77-E557-6B48-9B37-C4BCEEDFEC01}">
+  <dimension ref="A1:J101"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>0.58030000000000004</v>
+      </c>
+      <c r="B2">
+        <v>0.57889999999999997</v>
+      </c>
+      <c r="C2">
+        <v>0.57169999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.59550000000000003</v>
+      </c>
+      <c r="E2">
+        <v>0.57940000000000003</v>
+      </c>
+      <c r="F2">
+        <v>0.59870000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.59560000000000002</v>
+      </c>
+      <c r="H2">
+        <v>0.60319999999999996</v>
+      </c>
+      <c r="I2">
+        <v>0.59360000000000002</v>
+      </c>
+      <c r="J2">
+        <v>0.60119999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>0.6149</v>
+      </c>
+      <c r="B3">
+        <v>0.61029999999999995</v>
+      </c>
+      <c r="C3">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.61129999999999995</v>
+      </c>
+      <c r="E3">
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="F3">
+        <v>0.6401</v>
+      </c>
+      <c r="G3">
+        <v>0.62880000000000003</v>
+      </c>
+      <c r="H3">
+        <v>0.63839999999999997</v>
+      </c>
+      <c r="I3">
+        <v>0.625</v>
+      </c>
+      <c r="J3">
+        <v>0.62870000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>0.62780000000000002</v>
+      </c>
+      <c r="B4">
+        <v>0.62660000000000005</v>
+      </c>
+      <c r="C4">
+        <v>0.62919999999999998</v>
+      </c>
+      <c r="D4">
+        <v>0.61539999999999995</v>
+      </c>
+      <c r="E4">
+        <v>0.62380000000000002</v>
+      </c>
+      <c r="F4">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="G4">
+        <v>0.65449999999999997</v>
+      </c>
+      <c r="H4">
+        <v>0.65149999999999997</v>
+      </c>
+      <c r="I4">
+        <v>0.64859999999999995</v>
+      </c>
+      <c r="J4">
+        <v>0.65629999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>0.65690000000000004</v>
+      </c>
+      <c r="B5">
+        <v>0.63849999999999996</v>
+      </c>
+      <c r="C5">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="D5">
+        <v>0.64349999999999996</v>
+      </c>
+      <c r="E5">
+        <v>0.65149999999999997</v>
+      </c>
+      <c r="F5">
+        <v>0.66949999999999998</v>
+      </c>
+      <c r="G5">
+        <v>0.6673</v>
+      </c>
+      <c r="H5">
+        <v>0.67110000000000003</v>
+      </c>
+      <c r="I5">
+        <v>0.65890000000000004</v>
+      </c>
+      <c r="J5">
+        <v>0.67069999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>0.66259999999999997</v>
+      </c>
+      <c r="B6">
+        <v>0.66139999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.67230000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.65349999999999997</v>
+      </c>
+      <c r="E6">
+        <v>0.64870000000000005</v>
+      </c>
+      <c r="F6">
+        <v>0.68159999999999998</v>
+      </c>
+      <c r="G6">
+        <v>0.6804</v>
+      </c>
+      <c r="H6">
+        <v>0.6784</v>
+      </c>
+      <c r="I6">
+        <v>0.66890000000000005</v>
+      </c>
+      <c r="J6">
+        <v>0.68300000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>0.69220000000000004</v>
+      </c>
+      <c r="B7">
+        <v>0.68</v>
+      </c>
+      <c r="C7">
+        <v>0.67789999999999995</v>
+      </c>
+      <c r="D7">
+        <v>0.67010000000000003</v>
+      </c>
+      <c r="E7">
+        <v>0.65939999999999999</v>
+      </c>
+      <c r="F7">
+        <v>0.69479999999999997</v>
+      </c>
+      <c r="G7">
+        <v>0.68879999999999997</v>
+      </c>
+      <c r="H7">
+        <v>0.69030000000000002</v>
+      </c>
+      <c r="I7">
+        <v>0.68440000000000001</v>
+      </c>
+      <c r="J7">
+        <v>0.69520000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>0.7016</v>
+      </c>
+      <c r="B8">
+        <v>0.69320000000000004</v>
+      </c>
+      <c r="C8">
+        <v>0.68840000000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.69240000000000002</v>
+      </c>
+      <c r="E8">
+        <v>0.68049999999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.70209999999999995</v>
+      </c>
+      <c r="G8">
+        <v>0.69889999999999997</v>
+      </c>
+      <c r="H8">
+        <v>0.69269999999999998</v>
+      </c>
+      <c r="I8">
+        <v>0.68510000000000004</v>
+      </c>
+      <c r="J8">
+        <v>0.70169999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>0.71289999999999998</v>
+      </c>
+      <c r="B9">
+        <v>0.69910000000000005</v>
+      </c>
+      <c r="C9">
+        <v>0.70589999999999997</v>
+      </c>
+      <c r="D9">
+        <v>0.69169999999999998</v>
+      </c>
+      <c r="E9">
+        <v>0.68659999999999999</v>
+      </c>
+      <c r="F9">
+        <v>0.70940000000000003</v>
+      </c>
+      <c r="G9">
+        <v>0.70520000000000005</v>
+      </c>
+      <c r="H9">
+        <v>0.70840000000000003</v>
+      </c>
+      <c r="I9">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="J9">
+        <v>0.70979999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>0.7399</v>
+      </c>
+      <c r="B10">
+        <v>0.7238</v>
+      </c>
+      <c r="C10">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="D10">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="E10">
+        <v>0.71530000000000005</v>
+      </c>
+      <c r="F10">
+        <v>0.71479999999999999</v>
+      </c>
+      <c r="G10">
+        <v>0.71050000000000002</v>
+      </c>
+      <c r="H10">
+        <v>0.71819999999999995</v>
+      </c>
+      <c r="I10">
+        <v>0.70240000000000002</v>
+      </c>
+      <c r="J10">
+        <v>0.71709999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>0.75270000000000004</v>
+      </c>
+      <c r="B11">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="C11">
+        <v>0.74180000000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.72209999999999996</v>
+      </c>
+      <c r="E11">
+        <v>0.71540000000000004</v>
+      </c>
+      <c r="F11">
+        <v>0.72289999999999999</v>
+      </c>
+      <c r="G11">
+        <v>0.71989999999999998</v>
+      </c>
+      <c r="H11">
+        <v>0.7177</v>
+      </c>
+      <c r="I11">
+        <v>0.71530000000000005</v>
+      </c>
+      <c r="J11">
+        <v>0.7248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>0.77980000000000005</v>
+      </c>
+      <c r="B12">
+        <v>0.76060000000000005</v>
+      </c>
+      <c r="C12">
+        <v>0.76290000000000002</v>
+      </c>
+      <c r="D12">
+        <v>0.75619999999999998</v>
+      </c>
+      <c r="E12">
+        <v>0.73880000000000001</v>
+      </c>
+      <c r="F12">
+        <v>0.72719999999999996</v>
+      </c>
+      <c r="G12">
+        <v>0.72609999999999997</v>
+      </c>
+      <c r="H12">
+        <v>0.74280000000000002</v>
+      </c>
+      <c r="I12">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="J12">
+        <v>0.73229999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>0.80940000000000001</v>
+      </c>
+      <c r="B13">
+        <v>0.78549999999999998</v>
+      </c>
+      <c r="C13">
+        <v>0.7893</v>
+      </c>
+      <c r="D13">
+        <v>0.77710000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.77590000000000003</v>
+      </c>
+      <c r="F13">
+        <v>0.74270000000000003</v>
+      </c>
+      <c r="G13">
+        <v>0.73719999999999997</v>
+      </c>
+      <c r="H13">
+        <v>0.75519999999999998</v>
+      </c>
+      <c r="I13">
+        <v>0.73680000000000001</v>
+      </c>
+      <c r="J13">
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>0.81669999999999998</v>
+      </c>
+      <c r="B14">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="C14">
+        <v>0.80310000000000004</v>
+      </c>
+      <c r="D14">
+        <v>0.79810000000000003</v>
+      </c>
+      <c r="E14">
+        <v>0.78820000000000001</v>
+      </c>
+      <c r="F14">
+        <v>0.74970000000000003</v>
+      </c>
+      <c r="G14">
+        <v>0.74080000000000001</v>
+      </c>
+      <c r="H14">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="I14">
+        <v>0.75229999999999997</v>
+      </c>
+      <c r="J14">
+        <v>0.75880000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>0.8327</v>
+      </c>
+      <c r="B15">
+        <v>0.8296</v>
+      </c>
+      <c r="C15">
+        <v>0.81930000000000003</v>
+      </c>
+      <c r="D15">
+        <v>0.81469999999999998</v>
+      </c>
+      <c r="E15">
+        <v>0.81240000000000001</v>
+      </c>
+      <c r="F15">
+        <v>0.76770000000000005</v>
+      </c>
+      <c r="G15">
+        <v>0.755</v>
+      </c>
+      <c r="H15">
+        <v>0.79079999999999995</v>
+      </c>
+      <c r="I15">
+        <v>0.7681</v>
+      </c>
+      <c r="J15">
+        <v>0.77400000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>0.84409999999999996</v>
+      </c>
+      <c r="B16">
+        <v>0.84240000000000004</v>
+      </c>
+      <c r="C16">
+        <v>0.82669999999999999</v>
+      </c>
+      <c r="D16">
+        <v>0.83020000000000005</v>
+      </c>
+      <c r="E16">
+        <v>0.82779999999999998</v>
+      </c>
+      <c r="F16">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="G16">
+        <v>0.7681</v>
+      </c>
+      <c r="H16">
+        <v>0.80610000000000004</v>
+      </c>
+      <c r="I16">
+        <v>0.77929999999999999</v>
+      </c>
+      <c r="J16">
+        <v>0.78910000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="B17">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="C17">
+        <v>0.84860000000000002</v>
+      </c>
+      <c r="D17">
+        <v>0.84030000000000005</v>
+      </c>
+      <c r="E17">
+        <v>0.83930000000000005</v>
+      </c>
+      <c r="F17">
+        <v>0.79779999999999995</v>
+      </c>
+      <c r="G17">
+        <v>0.79369999999999996</v>
+      </c>
+      <c r="H17">
+        <v>0.81720000000000004</v>
+      </c>
+      <c r="I17">
+        <v>0.79649999999999999</v>
+      </c>
+      <c r="J17">
+        <v>0.80720000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>0.85980000000000001</v>
+      </c>
+      <c r="B18">
+        <v>0.86470000000000002</v>
+      </c>
+      <c r="C18">
+        <v>0.8528</v>
+      </c>
+      <c r="D18">
+        <v>0.84719999999999995</v>
+      </c>
+      <c r="E18">
+        <v>0.85070000000000001</v>
+      </c>
+      <c r="F18">
+        <v>0.80930000000000002</v>
+      </c>
+      <c r="G18">
+        <v>0.80489999999999995</v>
+      </c>
+      <c r="H18">
+        <v>0.82850000000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.8135</v>
+      </c>
+      <c r="J18">
+        <v>0.81930000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>0.86939999999999995</v>
+      </c>
+      <c r="B19">
+        <v>0.87890000000000001</v>
+      </c>
+      <c r="C19">
+        <v>0.86539999999999995</v>
+      </c>
+      <c r="D19">
+        <v>0.86109999999999998</v>
+      </c>
+      <c r="E19">
+        <v>0.85640000000000005</v>
+      </c>
+      <c r="F19">
+        <v>0.82320000000000004</v>
+      </c>
+      <c r="G19">
+        <v>0.81410000000000005</v>
+      </c>
+      <c r="H19">
+        <v>0.83979999999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.82430000000000003</v>
+      </c>
+      <c r="J19">
+        <v>0.8276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>0.87780000000000002</v>
+      </c>
+      <c r="B20">
+        <v>0.87990000000000002</v>
+      </c>
+      <c r="C20">
+        <v>0.87409999999999999</v>
+      </c>
+      <c r="D20">
+        <v>0.87139999999999995</v>
+      </c>
+      <c r="E20">
+        <v>0.87070000000000003</v>
+      </c>
+      <c r="F20">
+        <v>0.82889999999999997</v>
+      </c>
+      <c r="G20">
+        <v>0.82969999999999999</v>
+      </c>
+      <c r="H20">
+        <v>0.84089999999999998</v>
+      </c>
+      <c r="I20">
+        <v>0.83420000000000005</v>
+      </c>
+      <c r="J20">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>0.89219999999999999</v>
+      </c>
+      <c r="B21">
+        <v>0.89339999999999997</v>
+      </c>
+      <c r="C21">
+        <v>0.88190000000000002</v>
+      </c>
+      <c r="D21">
+        <v>0.87770000000000004</v>
+      </c>
+      <c r="E21">
+        <v>0.879</v>
+      </c>
+      <c r="F21">
+        <v>0.84160000000000001</v>
+      </c>
+      <c r="G21">
+        <v>0.83660000000000001</v>
+      </c>
+      <c r="H21">
+        <v>0.85070000000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.84509999999999996</v>
+      </c>
+      <c r="J21">
+        <v>0.84619999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>0.89410000000000001</v>
+      </c>
+      <c r="B22">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="C22">
+        <v>0.88329999999999997</v>
+      </c>
+      <c r="D22">
+        <v>0.88229999999999997</v>
+      </c>
+      <c r="E22">
+        <v>0.88829999999999998</v>
+      </c>
+      <c r="F22">
+        <v>0.85129999999999995</v>
+      </c>
+      <c r="G22">
+        <v>0.84840000000000004</v>
+      </c>
+      <c r="H22">
+        <v>0.85389999999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.85060000000000002</v>
+      </c>
+      <c r="J22">
+        <v>0.85209999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="B23">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="C23">
+        <v>0.8982</v>
+      </c>
+      <c r="D23">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="E23">
+        <v>0.89249999999999996</v>
+      </c>
+      <c r="F23">
+        <v>0.85070000000000001</v>
+      </c>
+      <c r="G23">
+        <v>0.85489999999999999</v>
+      </c>
+      <c r="H23">
+        <v>0.85660000000000003</v>
+      </c>
+      <c r="I23">
+        <v>0.85670000000000002</v>
+      </c>
+      <c r="J23">
+        <v>0.85589999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>0.9083</v>
+      </c>
+      <c r="B24">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="C24">
+        <v>0.9032</v>
+      </c>
+      <c r="D24">
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="E24">
+        <v>0.89490000000000003</v>
+      </c>
+      <c r="F24">
+        <v>0.85750000000000004</v>
+      </c>
+      <c r="G24">
+        <v>0.85960000000000003</v>
+      </c>
+      <c r="H24">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="I24">
+        <v>0.86129999999999995</v>
+      </c>
+      <c r="J24">
+        <v>0.86009999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>0.91569999999999996</v>
+      </c>
+      <c r="B25">
+        <v>0.92269999999999996</v>
+      </c>
+      <c r="C25">
+        <v>0.91459999999999997</v>
+      </c>
+      <c r="D25">
+        <v>0.90149999999999997</v>
+      </c>
+      <c r="E25">
+        <v>0.90759999999999996</v>
+      </c>
+      <c r="F25">
+        <v>0.86280000000000001</v>
+      </c>
+      <c r="G25">
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="H25">
+        <v>0.86970000000000003</v>
+      </c>
+      <c r="I25">
+        <v>0.86860000000000004</v>
+      </c>
+      <c r="J25">
+        <v>0.86509999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>0.92120000000000002</v>
+      </c>
+      <c r="B26">
+        <v>0.92630000000000001</v>
+      </c>
+      <c r="C26">
+        <v>0.91639999999999999</v>
+      </c>
+      <c r="D26">
+        <v>0.9093</v>
+      </c>
+      <c r="E26">
+        <v>0.90990000000000004</v>
+      </c>
+      <c r="F26">
+        <v>0.86829999999999996</v>
+      </c>
+      <c r="G26">
+        <v>0.86890000000000001</v>
+      </c>
+      <c r="H26">
+        <v>0.87309999999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.87090000000000001</v>
+      </c>
+      <c r="J26">
+        <v>0.86860000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>0.92610000000000003</v>
+      </c>
+      <c r="B27">
+        <v>0.93</v>
+      </c>
+      <c r="C27">
+        <v>0.92259999999999998</v>
+      </c>
+      <c r="D27">
+        <v>0.91639999999999999</v>
+      </c>
+      <c r="E27">
+        <v>0.91069999999999995</v>
+      </c>
+      <c r="F27">
+        <v>0.873</v>
+      </c>
+      <c r="G27">
+        <v>0.87309999999999999</v>
+      </c>
+      <c r="H27">
+        <v>0.87829999999999997</v>
+      </c>
+      <c r="I27">
+        <v>0.87549999999999994</v>
+      </c>
+      <c r="J27">
+        <v>0.87219999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>0.93149999999999999</v>
+      </c>
+      <c r="B28">
+        <v>0.93910000000000005</v>
+      </c>
+      <c r="C28">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="D28">
+        <v>0.92</v>
+      </c>
+      <c r="E28">
+        <v>0.92030000000000001</v>
+      </c>
+      <c r="F28">
+        <v>0.874</v>
+      </c>
+      <c r="G28">
+        <v>0.87929999999999997</v>
+      </c>
+      <c r="H28">
+        <v>0.88039999999999996</v>
+      </c>
+      <c r="I28">
+        <v>0.87739999999999996</v>
+      </c>
+      <c r="J28">
+        <v>0.87970000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>0.93789999999999996</v>
+      </c>
+      <c r="B29">
+        <v>0.94110000000000005</v>
+      </c>
+      <c r="C29">
+        <v>0.93220000000000003</v>
+      </c>
+      <c r="D29">
+        <v>0.9214</v>
+      </c>
+      <c r="E29">
+        <v>0.92479999999999996</v>
+      </c>
+      <c r="F29">
+        <v>0.87860000000000005</v>
+      </c>
+      <c r="G29">
+        <v>0.88539999999999996</v>
+      </c>
+      <c r="H29">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.88580000000000003</v>
+      </c>
+      <c r="J29">
+        <v>0.88390000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>0.94240000000000002</v>
+      </c>
+      <c r="B30">
+        <v>0.94630000000000003</v>
+      </c>
+      <c r="C30">
+        <v>0.9365</v>
+      </c>
+      <c r="D30">
+        <v>0.92889999999999995</v>
+      </c>
+      <c r="E30">
+        <v>0.9284</v>
+      </c>
+      <c r="F30">
+        <v>0.88429999999999997</v>
+      </c>
+      <c r="G30">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="H30">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="J30">
+        <v>0.88900000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="B31">
+        <v>0.94969999999999999</v>
+      </c>
+      <c r="C31">
+        <v>0.94259999999999999</v>
+      </c>
+      <c r="D31">
+        <v>0.93489999999999995</v>
+      </c>
+      <c r="E31">
+        <v>0.93230000000000002</v>
+      </c>
+      <c r="F31">
+        <v>0.88590000000000002</v>
+      </c>
+      <c r="G31">
+        <v>0.88990000000000002</v>
+      </c>
+      <c r="H31">
+        <v>0.89259999999999995</v>
+      </c>
+      <c r="I31">
+        <v>0.89029999999999998</v>
+      </c>
+      <c r="J31">
+        <v>0.89339999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>0.95279999999999998</v>
+      </c>
+      <c r="B32">
+        <v>0.95240000000000002</v>
+      </c>
+      <c r="C32">
+        <v>0.94679999999999997</v>
+      </c>
+      <c r="D32">
+        <v>0.93720000000000003</v>
+      </c>
+      <c r="E32">
+        <v>0.93769999999999998</v>
+      </c>
+      <c r="F32">
+        <v>0.89239999999999997</v>
+      </c>
+      <c r="G32">
+        <v>0.89539999999999997</v>
+      </c>
+      <c r="H32">
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="I32">
+        <v>0.89590000000000003</v>
+      </c>
+      <c r="J32">
+        <v>0.89780000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>0.95540000000000003</v>
+      </c>
+      <c r="B33">
+        <v>0.95379999999999998</v>
+      </c>
+      <c r="C33">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="D33">
+        <v>0.94320000000000004</v>
+      </c>
+      <c r="E33">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="F33">
+        <v>0.8952</v>
+      </c>
+      <c r="G33">
+        <v>0.90159999999999996</v>
+      </c>
+      <c r="H33">
+        <v>0.90090000000000003</v>
+      </c>
+      <c r="I33">
+        <v>0.9012</v>
+      </c>
+      <c r="J33">
+        <v>0.89900000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="B34">
+        <v>0.95940000000000003</v>
+      </c>
+      <c r="C34">
+        <v>0.95269999999999999</v>
+      </c>
+      <c r="D34">
+        <v>0.94650000000000001</v>
+      </c>
+      <c r="E34">
+        <v>0.9456</v>
+      </c>
+      <c r="F34">
+        <v>0.89770000000000005</v>
+      </c>
+      <c r="G34">
+        <v>0.90580000000000005</v>
+      </c>
+      <c r="H34">
+        <v>0.90690000000000004</v>
+      </c>
+      <c r="I34">
+        <v>0.90490000000000004</v>
+      </c>
+      <c r="J34">
+        <v>0.90559999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>0.96209999999999996</v>
+      </c>
+      <c r="B35">
+        <v>0.96230000000000004</v>
+      </c>
+      <c r="C35">
+        <v>0.96150000000000002</v>
+      </c>
+      <c r="D35">
+        <v>0.9456</v>
+      </c>
+      <c r="E35">
+        <v>0.94930000000000003</v>
+      </c>
+      <c r="F35">
+        <v>0.90229999999999999</v>
+      </c>
+      <c r="G35">
+        <v>0.90810000000000002</v>
+      </c>
+      <c r="H35">
+        <v>0.90820000000000001</v>
+      </c>
+      <c r="I35">
+        <v>0.90810000000000002</v>
+      </c>
+      <c r="J35">
+        <v>0.90759999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>0.96379999999999999</v>
+      </c>
+      <c r="B36">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="C36">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="D36">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="E36">
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="F36">
+        <v>0.90659999999999996</v>
+      </c>
+      <c r="G36">
+        <v>0.91339999999999999</v>
+      </c>
+      <c r="H36">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="I36">
+        <v>0.9123</v>
+      </c>
+      <c r="J36">
+        <v>0.91269999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>0.96619999999999995</v>
+      </c>
+      <c r="B37">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="C37">
+        <v>0.96109999999999995</v>
+      </c>
+      <c r="D37">
+        <v>0.95589999999999997</v>
+      </c>
+      <c r="E37">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="F37">
+        <v>0.90990000000000004</v>
+      </c>
+      <c r="G37">
+        <v>0.91590000000000005</v>
+      </c>
+      <c r="H37">
+        <v>0.91710000000000003</v>
+      </c>
+      <c r="I37">
+        <v>0.91490000000000005</v>
+      </c>
+      <c r="J37">
+        <v>0.91869999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="B38">
+        <v>0.97070000000000001</v>
+      </c>
+      <c r="C38">
+        <v>0.96630000000000005</v>
+      </c>
+      <c r="D38">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="E38">
+        <v>0.95809999999999995</v>
+      </c>
+      <c r="F38">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="G38">
+        <v>0.92169999999999996</v>
+      </c>
+      <c r="H38">
+        <v>0.92020000000000002</v>
+      </c>
+      <c r="I38">
+        <v>0.91669999999999996</v>
+      </c>
+      <c r="J38">
+        <v>0.9204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>0.97360000000000002</v>
+      </c>
+      <c r="B39">
+        <v>0.97330000000000005</v>
+      </c>
+      <c r="C39">
+        <v>0.96950000000000003</v>
+      </c>
+      <c r="D39">
+        <v>0.96209999999999996</v>
+      </c>
+      <c r="E39">
+        <v>0.96089999999999998</v>
+      </c>
+      <c r="F39">
+        <v>0.91869999999999996</v>
+      </c>
+      <c r="G39">
+        <v>0.92330000000000001</v>
+      </c>
+      <c r="H39">
+        <v>0.92569999999999997</v>
+      </c>
+      <c r="I39">
+        <v>0.91930000000000001</v>
+      </c>
+      <c r="J39">
+        <v>0.92310000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>0.97509999999999997</v>
+      </c>
+      <c r="B40">
+        <v>0.97650000000000003</v>
+      </c>
+      <c r="C40">
+        <v>0.97209999999999996</v>
+      </c>
+      <c r="D40">
+        <v>0.96379999999999999</v>
+      </c>
+      <c r="E40">
+        <v>0.96319999999999995</v>
+      </c>
+      <c r="F40">
+        <v>0.92120000000000002</v>
+      </c>
+      <c r="G40">
+        <v>0.9274</v>
+      </c>
+      <c r="H40">
+        <v>0.93</v>
+      </c>
+      <c r="I40">
+        <v>0.92369999999999997</v>
+      </c>
+      <c r="J40">
+        <v>0.92689999999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>0.97629999999999995</v>
+      </c>
+      <c r="B41">
+        <v>0.97889999999999999</v>
+      </c>
+      <c r="C41">
+        <v>0.9768</v>
+      </c>
+      <c r="D41">
+        <v>0.96750000000000003</v>
+      </c>
+      <c r="E41">
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="F41">
+        <v>0.92169999999999996</v>
+      </c>
+      <c r="G41">
+        <v>0.93140000000000001</v>
+      </c>
+      <c r="H41">
+        <v>0.93279999999999996</v>
+      </c>
+      <c r="I41">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="J41">
+        <v>0.92900000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>0.97760000000000002</v>
+      </c>
+      <c r="B42">
+        <v>0.97889999999999999</v>
+      </c>
+      <c r="C42">
+        <v>0.97650000000000003</v>
+      </c>
+      <c r="D42">
+        <v>0.97089999999999999</v>
+      </c>
+      <c r="E42">
+        <v>0.96909999999999996</v>
+      </c>
+      <c r="F42">
+        <v>0.9264</v>
+      </c>
+      <c r="G42">
+        <v>0.93310000000000004</v>
+      </c>
+      <c r="H42">
+        <v>0.93540000000000001</v>
+      </c>
+      <c r="I42">
+        <v>0.93140000000000001</v>
+      </c>
+      <c r="J42">
+        <v>0.93179999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
+        <v>0.98219999999999996</v>
+      </c>
+      <c r="B43">
+        <v>0.98180000000000001</v>
+      </c>
+      <c r="C43">
+        <v>0.97809999999999997</v>
+      </c>
+      <c r="D43">
+        <v>0.9708</v>
+      </c>
+      <c r="E43">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="F43">
+        <v>0.92969999999999997</v>
+      </c>
+      <c r="G43">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="H43">
+        <v>0.93759999999999999</v>
+      </c>
+      <c r="I43">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="J43">
+        <v>0.93510000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
+        <v>0.98219999999999996</v>
+      </c>
+      <c r="B44">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="C44">
+        <v>0.98070000000000002</v>
+      </c>
+      <c r="D44">
+        <v>0.97489999999999999</v>
+      </c>
+      <c r="E44">
+        <v>0.97529999999999994</v>
+      </c>
+      <c r="F44">
+        <v>0.93479999999999996</v>
+      </c>
+      <c r="G44">
+        <v>0.9415</v>
+      </c>
+      <c r="H44">
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="I44">
+        <v>0.93810000000000004</v>
+      </c>
+      <c r="J44">
+        <v>0.93700000000000006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <v>0.98380000000000001</v>
+      </c>
+      <c r="B45">
+        <v>0.98429999999999995</v>
+      </c>
+      <c r="C45">
+        <v>0.9819</v>
+      </c>
+      <c r="D45">
+        <v>0.9758</v>
+      </c>
+      <c r="E45">
+        <v>0.97570000000000001</v>
+      </c>
+      <c r="F45">
+        <v>0.93579999999999997</v>
+      </c>
+      <c r="G45">
+        <v>0.9446</v>
+      </c>
+      <c r="H45">
+        <v>0.94420000000000004</v>
+      </c>
+      <c r="I45">
+        <v>0.94140000000000001</v>
+      </c>
+      <c r="J45">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46">
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="B46">
+        <v>0.98619999999999997</v>
+      </c>
+      <c r="C46">
+        <v>0.98360000000000003</v>
+      </c>
+      <c r="D46">
+        <v>0.97870000000000001</v>
+      </c>
+      <c r="E46">
+        <v>0.97829999999999995</v>
+      </c>
+      <c r="F46">
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="G46">
+        <v>0.94769999999999999</v>
+      </c>
+      <c r="H46">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="I46">
+        <v>0.94269999999999998</v>
+      </c>
+      <c r="J46">
+        <v>0.94420000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="B47">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="C47">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="D47">
+        <v>0.97940000000000005</v>
+      </c>
+      <c r="E47">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="F47">
+        <v>0.94210000000000005</v>
+      </c>
+      <c r="G47">
+        <v>0.94989999999999997</v>
+      </c>
+      <c r="H47">
+        <v>0.94979999999999998</v>
+      </c>
+      <c r="I47">
+        <v>0.94640000000000002</v>
+      </c>
+      <c r="J47">
+        <v>0.9476</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="B48">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="C48">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="D48">
+        <v>0.98250000000000004</v>
+      </c>
+      <c r="E48">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="F48">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="G48">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="H48">
+        <v>0.95330000000000004</v>
+      </c>
+      <c r="I48">
+        <v>0.94979999999999998</v>
+      </c>
+      <c r="J48">
+        <v>0.94889999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49">
+        <v>0.9889</v>
+      </c>
+      <c r="B49">
+        <v>0.99019999999999997</v>
+      </c>
+      <c r="C49">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="D49">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="E49">
+        <v>0.98270000000000002</v>
+      </c>
+      <c r="F49">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="G49">
+        <v>0.95430000000000004</v>
+      </c>
+      <c r="H49">
+        <v>0.95379999999999998</v>
+      </c>
+      <c r="I49">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="J49">
+        <v>0.95099999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50">
+        <v>0.9899</v>
+      </c>
+      <c r="B50">
+        <v>0.99019999999999997</v>
+      </c>
+      <c r="C50">
+        <v>0.9889</v>
+      </c>
+      <c r="D50">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="E50">
+        <v>0.98540000000000005</v>
+      </c>
+      <c r="F50">
+        <v>0.94969999999999999</v>
+      </c>
+      <c r="G50">
+        <v>0.95709999999999995</v>
+      </c>
+      <c r="H50">
+        <v>0.95660000000000001</v>
+      </c>
+      <c r="I50">
+        <v>0.95320000000000005</v>
+      </c>
+      <c r="J50">
+        <v>0.95299999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51">
+        <v>0.98980000000000001</v>
+      </c>
+      <c r="B51">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="C51">
+        <v>0.98870000000000002</v>
+      </c>
+      <c r="D51">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="E51">
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="F51">
+        <v>0.95020000000000004</v>
+      </c>
+      <c r="G51">
+        <v>0.95860000000000001</v>
+      </c>
+      <c r="H51">
+        <v>0.95850000000000002</v>
+      </c>
+      <c r="I51">
+        <v>0.9546</v>
+      </c>
+      <c r="J51">
+        <v>0.95389999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52">
+        <v>0.9909</v>
+      </c>
+      <c r="B52">
+        <v>0.99060000000000004</v>
+      </c>
+      <c r="C52">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="D52">
+        <v>0.98619999999999997</v>
+      </c>
+      <c r="E52">
+        <v>0.98609999999999998</v>
+      </c>
+      <c r="F52">
+        <v>0.95320000000000005</v>
+      </c>
+      <c r="G52">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="H52">
+        <v>0.96109999999999995</v>
+      </c>
+      <c r="I52">
+        <v>0.95809999999999995</v>
+      </c>
+      <c r="J52">
+        <v>0.95740000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53">
+        <v>0.9919</v>
+      </c>
+      <c r="B53">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="C53">
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="D53">
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="E53">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="F53">
+        <v>0.95550000000000002</v>
+      </c>
+      <c r="G53">
+        <v>0.96150000000000002</v>
+      </c>
+      <c r="H53">
+        <v>0.96340000000000003</v>
+      </c>
+      <c r="I53">
+        <v>0.96</v>
+      </c>
+      <c r="J53">
+        <v>0.9607</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54">
+        <v>0.99270000000000003</v>
+      </c>
+      <c r="B54">
+        <v>0.99250000000000005</v>
+      </c>
+      <c r="C54">
+        <v>0.99219999999999997</v>
+      </c>
+      <c r="D54">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="E54">
+        <v>0.98819999999999997</v>
+      </c>
+      <c r="F54">
+        <v>0.95679999999999998</v>
+      </c>
+      <c r="G54">
+        <v>0.96450000000000002</v>
+      </c>
+      <c r="H54">
+        <v>0.96519999999999995</v>
+      </c>
+      <c r="I54">
+        <v>0.9627</v>
+      </c>
+      <c r="J54">
+        <v>0.96160000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55">
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="B55">
+        <v>0.99409999999999998</v>
+      </c>
+      <c r="C55">
+        <v>0.99209999999999998</v>
+      </c>
+      <c r="D55">
+        <v>0.99019999999999997</v>
+      </c>
+      <c r="E55">
+        <v>0.99</v>
+      </c>
+      <c r="F55">
+        <v>0.96030000000000004</v>
+      </c>
+      <c r="G55">
+        <v>0.96519999999999995</v>
+      </c>
+      <c r="H55">
+        <v>0.96650000000000003</v>
+      </c>
+      <c r="I55">
+        <v>0.96360000000000001</v>
+      </c>
+      <c r="J55">
+        <v>0.96330000000000005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56">
+        <v>0.99370000000000003</v>
+      </c>
+      <c r="B56">
+        <v>0.99409999999999998</v>
+      </c>
+      <c r="C56">
+        <v>0.99319999999999997</v>
+      </c>
+      <c r="D56">
+        <v>0.99109999999999998</v>
+      </c>
+      <c r="E56">
+        <v>0.99</v>
+      </c>
+      <c r="F56">
+        <v>0.96120000000000005</v>
+      </c>
+      <c r="G56">
+        <v>0.96709999999999996</v>
+      </c>
+      <c r="H56">
+        <v>0.96789999999999998</v>
+      </c>
+      <c r="I56">
+        <v>0.96450000000000002</v>
+      </c>
+      <c r="J56">
+        <v>0.96399999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="B57">
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="C57">
+        <v>0.99380000000000002</v>
+      </c>
+      <c r="D57">
+        <v>0.99119999999999997</v>
+      </c>
+      <c r="E57">
+        <v>0.99019999999999997</v>
+      </c>
+      <c r="F57">
+        <v>0.9627</v>
+      </c>
+      <c r="G57">
+        <v>0.97019999999999995</v>
+      </c>
+      <c r="H57">
+        <v>0.96960000000000002</v>
+      </c>
+      <c r="I57">
+        <v>0.96730000000000005</v>
+      </c>
+      <c r="J57">
+        <v>0.96719999999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="B58">
+        <v>0.99509999999999998</v>
+      </c>
+      <c r="C58">
+        <v>0.99350000000000005</v>
+      </c>
+      <c r="D58">
+        <v>0.9929</v>
+      </c>
+      <c r="E58">
+        <v>0.99070000000000003</v>
+      </c>
+      <c r="F58">
+        <v>0.96519999999999995</v>
+      </c>
+      <c r="G58">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="H58">
+        <v>0.97130000000000005</v>
+      </c>
+      <c r="I58">
+        <v>0.96960000000000002</v>
+      </c>
+      <c r="J58">
+        <v>0.96840000000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59">
+        <v>0.99509999999999998</v>
+      </c>
+      <c r="B59">
+        <v>0.99560000000000004</v>
+      </c>
+      <c r="C59">
+        <v>0.99360000000000004</v>
+      </c>
+      <c r="D59">
+        <v>0.99250000000000005</v>
+      </c>
+      <c r="E59">
+        <v>0.99260000000000004</v>
+      </c>
+      <c r="F59">
+        <v>0.96689999999999998</v>
+      </c>
+      <c r="G59">
+        <v>0.97319999999999995</v>
+      </c>
+      <c r="H59">
+        <v>0.97240000000000004</v>
+      </c>
+      <c r="I59">
+        <v>0.97050000000000003</v>
+      </c>
+      <c r="J59">
+        <v>0.96989999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60">
+        <v>0.99560000000000004</v>
+      </c>
+      <c r="B60">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="C60">
+        <v>0.99509999999999998</v>
+      </c>
+      <c r="D60">
+        <v>0.99250000000000005</v>
+      </c>
+      <c r="E60">
+        <v>0.99239999999999995</v>
+      </c>
+      <c r="F60">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="G60">
+        <v>0.97330000000000005</v>
+      </c>
+      <c r="H60">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="I60">
+        <v>0.9718</v>
+      </c>
+      <c r="J60">
+        <v>0.97240000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61">
+        <v>0.996</v>
+      </c>
+      <c r="B61">
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="C61">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="D61">
+        <v>0.99370000000000003</v>
+      </c>
+      <c r="E61">
+        <v>0.99380000000000002</v>
+      </c>
+      <c r="F61">
+        <v>0.96970000000000001</v>
+      </c>
+      <c r="G61">
+        <v>0.97550000000000003</v>
+      </c>
+      <c r="H61">
+        <v>0.97540000000000004</v>
+      </c>
+      <c r="I61">
+        <v>0.97309999999999997</v>
+      </c>
+      <c r="J61">
+        <v>0.97209999999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="B62">
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="C62">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="D62">
+        <v>0.99409999999999998</v>
+      </c>
+      <c r="E62">
+        <v>0.99390000000000001</v>
+      </c>
+      <c r="F62">
+        <v>0.97060000000000002</v>
+      </c>
+      <c r="G62">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="H62">
+        <v>0.97729999999999995</v>
+      </c>
+      <c r="I62">
+        <v>0.97309999999999997</v>
+      </c>
+      <c r="J62">
+        <v>0.9748</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63">
+        <v>0.99680000000000002</v>
+      </c>
+      <c r="B63">
+        <v>0.99629999999999996</v>
+      </c>
+      <c r="C63">
+        <v>0.99629999999999996</v>
+      </c>
+      <c r="D63">
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="E63">
+        <v>0.99450000000000005</v>
+      </c>
+      <c r="F63">
+        <v>0.97230000000000005</v>
+      </c>
+      <c r="G63">
+        <v>0.97819999999999996</v>
+      </c>
+      <c r="H63">
+        <v>0.97770000000000001</v>
+      </c>
+      <c r="I63">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="J63">
+        <v>0.9748</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="B64">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="C64">
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="D64">
+        <v>0.99450000000000005</v>
+      </c>
+      <c r="E64">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="F64">
+        <v>0.97270000000000001</v>
+      </c>
+      <c r="G64">
+        <v>0.97809999999999997</v>
+      </c>
+      <c r="H64">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="I64">
+        <v>0.97589999999999999</v>
+      </c>
+      <c r="J64">
+        <v>0.97689999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65">
+        <v>0.997</v>
+      </c>
+      <c r="B65">
+        <v>0.99719999999999998</v>
+      </c>
+      <c r="C65">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="D65">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="E65">
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="F65">
+        <v>0.97550000000000003</v>
+      </c>
+      <c r="G65">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="H65">
+        <v>0.97970000000000002</v>
+      </c>
+      <c r="I65">
+        <v>0.97809999999999997</v>
+      </c>
+      <c r="J65">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="B66">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="C66">
+        <v>0.99709999999999999</v>
+      </c>
+      <c r="D66">
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="E66">
+        <v>0.995</v>
+      </c>
+      <c r="F66">
+        <v>0.97640000000000005</v>
+      </c>
+      <c r="G66">
+        <v>0.98060000000000003</v>
+      </c>
+      <c r="H66">
+        <v>0.97970000000000002</v>
+      </c>
+      <c r="I66">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="J66">
+        <v>0.9798</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="B67">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="C67">
+        <v>0.997</v>
+      </c>
+      <c r="D67">
+        <v>0.996</v>
+      </c>
+      <c r="E67">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="F67">
+        <v>0.97789999999999999</v>
+      </c>
+      <c r="G67">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="H67">
+        <v>0.98129999999999995</v>
+      </c>
+      <c r="I67">
+        <v>0.98009999999999997</v>
+      </c>
+      <c r="J67">
+        <v>0.97960000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="B68">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="C68">
+        <v>0.99719999999999998</v>
+      </c>
+      <c r="D68">
+        <v>0.996</v>
+      </c>
+      <c r="E68">
+        <v>0.99660000000000004</v>
+      </c>
+      <c r="F68">
+        <v>0.97889999999999999</v>
+      </c>
+      <c r="G68">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="H68">
+        <v>0.98260000000000003</v>
+      </c>
+      <c r="I68">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="J68">
+        <v>0.98050000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="B69">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="C69">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="D69">
+        <v>0.99629999999999996</v>
+      </c>
+      <c r="E69">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="F69">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="G69">
+        <v>0.98440000000000005</v>
+      </c>
+      <c r="H69">
+        <v>0.98370000000000002</v>
+      </c>
+      <c r="I69">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="J69">
+        <v>0.98229999999999995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="B70">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="C70">
+        <v>0.99719999999999998</v>
+      </c>
+      <c r="D70">
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="E70">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="F70">
+        <v>0.98</v>
+      </c>
+      <c r="G70">
+        <v>0.9849</v>
+      </c>
+      <c r="H70">
+        <v>0.98429999999999995</v>
+      </c>
+      <c r="I70">
+        <v>0.98240000000000005</v>
+      </c>
+      <c r="J70">
+        <v>0.98350000000000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71">
+        <v>0.998</v>
+      </c>
+      <c r="B71">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="C71">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="D71">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="E71">
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="F71">
+        <v>0.98050000000000004</v>
+      </c>
+      <c r="G71">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="H71">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="I71">
+        <v>0.98380000000000001</v>
+      </c>
+      <c r="J71">
+        <v>0.98419999999999996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="B72">
+        <v>0.998</v>
+      </c>
+      <c r="C72">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="D72">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="E72">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="F72">
+        <v>0.98270000000000002</v>
+      </c>
+      <c r="G72">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="H72">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="I72">
+        <v>0.98450000000000004</v>
+      </c>
+      <c r="J72">
+        <v>0.98460000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="B73">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="C73">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="D73">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="E73">
+        <v>0.99719999999999998</v>
+      </c>
+      <c r="F73">
+        <v>0.98360000000000003</v>
+      </c>
+      <c r="G73">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="H73">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="I73">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="J73">
+        <v>0.98509999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="B74">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="C74">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="D74">
+        <v>0.997</v>
+      </c>
+      <c r="E74">
+        <v>0.99680000000000002</v>
+      </c>
+      <c r="F74">
+        <v>0.98409999999999997</v>
+      </c>
+      <c r="G74">
+        <v>0.9879</v>
+      </c>
+      <c r="H74">
+        <v>0.98760000000000003</v>
+      </c>
+      <c r="I74">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="J74">
+        <v>0.98580000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="B75">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="C75">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="D75">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="E75">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="F75">
+        <v>0.98540000000000005</v>
+      </c>
+      <c r="G75">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="H75">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="I75">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="J75">
+        <v>0.98680000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="B76">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="C76">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="D76">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="E76">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="F76">
+        <v>0.98580000000000001</v>
+      </c>
+      <c r="G76">
+        <v>0.98909999999999998</v>
+      </c>
+      <c r="H76">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="I76">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="J76">
+        <v>0.98750000000000004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="B77">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="C77">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="D77">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="E77">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="F77">
+        <v>0.98619999999999997</v>
+      </c>
+      <c r="G77">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="H77">
+        <v>0.98929999999999996</v>
+      </c>
+      <c r="I77">
+        <v>0.98870000000000002</v>
+      </c>
+      <c r="J77">
+        <v>0.98819999999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="B78">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="C78">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="D78">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="E78">
+        <v>0.998</v>
+      </c>
+      <c r="F78">
+        <v>0.98709999999999998</v>
+      </c>
+      <c r="G78">
+        <v>0.99</v>
+      </c>
+      <c r="H78">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="I78">
+        <v>0.98880000000000001</v>
+      </c>
+      <c r="J78">
+        <v>0.98870000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="B79">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="C79">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="D79">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="E79">
+        <v>0.998</v>
+      </c>
+      <c r="F79">
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="G79">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="H79">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="I79">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="J79">
+        <v>0.98919999999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80">
+        <v>0.999</v>
+      </c>
+      <c r="B80">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="C80">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="D80">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="E80">
+        <v>0.998</v>
+      </c>
+      <c r="F80">
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="G80">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="H80">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="I80">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="J80">
+        <v>0.98960000000000004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="B81">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="C81">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="D81">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="E81">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="F81">
+        <v>0.98929999999999996</v>
+      </c>
+      <c r="G81">
+        <v>0.99129999999999996</v>
+      </c>
+      <c r="H81">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="I81">
+        <v>0.9909</v>
+      </c>
+      <c r="J81">
+        <v>0.99029999999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="B82">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="C82">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="D82">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="E82">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="F82">
+        <v>0.98929999999999996</v>
+      </c>
+      <c r="G82">
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="H82">
+        <v>0.9919</v>
+      </c>
+      <c r="I82">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="J82">
+        <v>0.99060000000000004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83">
+        <v>0.999</v>
+      </c>
+      <c r="B83">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="C83">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="D83">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="E83">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="F83">
+        <v>0.98950000000000005</v>
+      </c>
+      <c r="G83">
+        <v>0.99180000000000001</v>
+      </c>
+      <c r="H83">
+        <v>0.99270000000000003</v>
+      </c>
+      <c r="I83">
+        <v>0.99129999999999996</v>
+      </c>
+      <c r="J83">
+        <v>0.99139999999999995</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84">
+        <v>0.999</v>
+      </c>
+      <c r="B84">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="C84">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="D84">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="E84">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="F84">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="G84">
+        <v>0.99219999999999997</v>
+      </c>
+      <c r="H84">
+        <v>0.99229999999999996</v>
+      </c>
+      <c r="I84">
+        <v>0.99160000000000004</v>
+      </c>
+      <c r="J84">
+        <v>0.99099999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="B85">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="C85">
+        <v>0.999</v>
+      </c>
+      <c r="D85">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="E85">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="F85">
+        <v>0.9909</v>
+      </c>
+      <c r="G85">
+        <v>0.99270000000000003</v>
+      </c>
+      <c r="H85">
+        <v>0.99280000000000002</v>
+      </c>
+      <c r="I85">
+        <v>0.99219999999999997</v>
+      </c>
+      <c r="J85">
+        <v>0.99219999999999997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="B86">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="C86">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="D86">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="E86">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="F86">
+        <v>0.99180000000000001</v>
+      </c>
+      <c r="G86">
+        <v>0.99339999999999995</v>
+      </c>
+      <c r="H86">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="I86">
+        <v>0.99219999999999997</v>
+      </c>
+      <c r="J86">
+        <v>0.99219999999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="B87">
+        <v>0.999</v>
+      </c>
+      <c r="C87">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="D87">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="E87">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="F87">
+        <v>0.99129999999999996</v>
+      </c>
+      <c r="G87">
+        <v>0.99339999999999995</v>
+      </c>
+      <c r="H87">
+        <v>0.99360000000000004</v>
+      </c>
+      <c r="I87">
+        <v>0.99239999999999995</v>
+      </c>
+      <c r="J87">
+        <v>0.99270000000000003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88">
+        <v>0.999</v>
+      </c>
+      <c r="B88">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="C88">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="D88">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="E88">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="F88">
+        <v>0.99260000000000004</v>
+      </c>
+      <c r="G88">
+        <v>0.99360000000000004</v>
+      </c>
+      <c r="H88">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I88">
+        <v>0.99350000000000005</v>
+      </c>
+      <c r="J88">
+        <v>0.99319999999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="B89">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="C89">
+        <v>0.999</v>
+      </c>
+      <c r="D89">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="E89">
+        <v>0.999</v>
+      </c>
+      <c r="F89">
+        <v>0.9929</v>
+      </c>
+      <c r="G89">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="H89">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I89">
+        <v>0.99339999999999995</v>
+      </c>
+      <c r="J89">
+        <v>0.9929</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="B90">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="C90">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="D90">
+        <v>0.999</v>
+      </c>
+      <c r="E90">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="F90">
+        <v>0.99319999999999997</v>
+      </c>
+      <c r="G90">
+        <v>0.99460000000000004</v>
+      </c>
+      <c r="H90">
+        <v>0.99429999999999996</v>
+      </c>
+      <c r="I90">
+        <v>0.99409999999999998</v>
+      </c>
+      <c r="J90">
+        <v>0.99390000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="B91">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="C91">
+        <v>0.999</v>
+      </c>
+      <c r="D91">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="E91">
+        <v>0.999</v>
+      </c>
+      <c r="F91">
+        <v>0.99319999999999997</v>
+      </c>
+      <c r="G91">
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="H91">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="I91">
+        <v>0.99360000000000004</v>
+      </c>
+      <c r="J91">
+        <v>0.99429999999999996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="B92">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="C92">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="D92">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="E92">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="F92">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="G92">
+        <v>0.99490000000000001</v>
+      </c>
+      <c r="H92">
+        <v>0.99490000000000001</v>
+      </c>
+      <c r="I92">
+        <v>0.99409999999999998</v>
+      </c>
+      <c r="J92">
+        <v>0.99419999999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="B93">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="C93">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="D93">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="E93">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="F93">
+        <v>0.99339999999999995</v>
+      </c>
+      <c r="G93">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="H93">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="I93">
+        <v>0.99490000000000001</v>
+      </c>
+      <c r="J93">
+        <v>0.99480000000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="B94">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="C94">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="D94">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="E94">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="F94">
+        <v>0.99370000000000003</v>
+      </c>
+      <c r="G94">
+        <v>0.99509999999999998</v>
+      </c>
+      <c r="H94">
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="I94">
+        <v>0.99450000000000005</v>
+      </c>
+      <c r="J94">
+        <v>0.99480000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="B95">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="C95">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="D95">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="E95">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="F95">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G95">
+        <v>0.99560000000000004</v>
+      </c>
+      <c r="H95">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="I95">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="J95">
+        <v>0.99429999999999996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="B96">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="C96">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="D96">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="E96">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="F96">
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="G96">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="H96">
+        <v>0.99560000000000004</v>
+      </c>
+      <c r="I96">
+        <v>0.995</v>
+      </c>
+      <c r="J96">
+        <v>0.99529999999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="B97">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="C97">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="D97">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="E97">
+        <v>0.999</v>
+      </c>
+      <c r="F97">
+        <v>0.995</v>
+      </c>
+      <c r="G97">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="H97">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="I97">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="J97">
+        <v>0.99550000000000005</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="B98">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="C98">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="D98">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="E98">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="F98">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="G98">
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="H98">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="I98">
+        <v>0.99590000000000001</v>
+      </c>
+      <c r="J98">
+        <v>0.99560000000000004</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="B99">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="C99">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="D99">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="E99">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="F99">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="G99">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="H99">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="I99">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="J99">
+        <v>0.99560000000000004</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="B100">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="C100">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="D100">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="E100">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="F100">
+        <v>0.99490000000000001</v>
+      </c>
+      <c r="G100">
+        <v>0.99629999999999996</v>
+      </c>
+      <c r="H100">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="I100">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="J100">
+        <v>0.99590000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="B101">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="C101">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="D101">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="E101">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="F101">
+        <v>0.99560000000000004</v>
+      </c>
+      <c r="G101">
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="H101">
+        <v>0.99680000000000002</v>
+      </c>
+      <c r="I101">
+        <v>0.996</v>
+      </c>
+      <c r="J101">
+        <v>0.99639999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/9438/School/Spring2020/CSCI5922/final_project/final_timothy_mason_csci5922_s20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8C657C-304C-2F48-802D-E6A29455D358}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B99687-F51D-E24F-944C-AE45E747C714}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="3" xr2:uid="{F58C6C7F-5855-FD4B-B1F8-9C76888EB29A}"/>
   </bookViews>
@@ -17,8 +17,9 @@
     <sheet name="Hyperparm Train Results" sheetId="6" r:id="rId2"/>
     <sheet name="Rep Data" sheetId="5" r:id="rId3"/>
     <sheet name="Repeatability" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,61 +37,88 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
-    <t>80k parms, feat. len. 252</t>
+    <t>segments</t>
   </si>
   <si>
-    <t>2.5M parms, feat. len. 252</t>
+    <t>Remaining Songs</t>
   </si>
   <si>
-    <t>2.5M parms, feat. len. 512</t>
+    <t>Layer</t>
   </si>
   <si>
-    <t>2.5M parms, feat. len. 1024</t>
+    <t>Smaller Model
+(N)</t>
   </si>
   <si>
-    <t>80k parms, feat. len. 512</t>
+    <t>Large Model 
+(N)</t>
   </si>
   <si>
-    <t>80k parms, feat. len. 1024</t>
+    <t>conv2d</t>
   </si>
   <si>
-    <t>2.5M, 1024, 100 Epoch, #1</t>
+    <t>rnn</t>
   </si>
   <si>
-    <t>2.5M, 1024, 100 Epoch, #2</t>
+    <t>Smaller Model parms, segments=252</t>
   </si>
   <si>
-    <t>2.5M, 1024, 100 Epoch, #3</t>
+    <t>Smaller Model parms, segments=512</t>
   </si>
   <si>
-    <t>2.5M, 1024, 100 Epoch, #4</t>
+    <t>Smaller Model parms, segments=1024</t>
   </si>
   <si>
-    <t>2.5M, 1024, 100 Epoch, #5</t>
+    <t>Large Model, segments=252</t>
   </si>
   <si>
-    <t>2.5M, 252, 100 Epoch, #1</t>
+    <t>Large Model, segments=512</t>
   </si>
   <si>
-    <t>2.5M, 252, 100 Epoch, #2</t>
+    <t>Large Model, segments=1024</t>
   </si>
   <si>
-    <t>2.5M, 252, 100 Epoch, #3</t>
+    <t>Large, 1024, 100 Epoch, #1</t>
   </si>
   <si>
-    <t>2.5M, 252, 100 Epoch, #4</t>
+    <t>Large, 1024, 100 Epoch, #2</t>
   </si>
   <si>
-    <t>2.5M, 252, 100 Epoch, #5</t>
+    <t>Large, 1024, 100 Epoch, #3</t>
+  </si>
+  <si>
+    <t>Large, 1024, 100 Epoch, #4</t>
+  </si>
+  <si>
+    <t>Large, 1024, 100 Epoch, #5</t>
+  </si>
+  <si>
+    <t>Large, 252, 100 Epoch, #1</t>
+  </si>
+  <si>
+    <t>Large, 252, 100 Epoch, #2</t>
+  </si>
+  <si>
+    <t>Large, 252, 100 Epoch, #3</t>
+  </si>
+  <si>
+    <t>Large, 252, 100 Epoch, #4</t>
+  </si>
+  <si>
+    <t>Large, 252, 100 Epoch, #5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -102,16 +130,35 @@
       <name val="HelveticaNeue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="HelveticaNeue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="HelveticaNeue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -119,17 +166,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -171,7 +251,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>80k parms, feat. len. 252</c:v>
+                  <c:v>Smaller Model parms, segments=252</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -375,7 +455,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.5M parms, feat. len. 252</c:v>
+                  <c:v>Large Model, segments=252</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -579,7 +659,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>80k parms, feat. len. 512</c:v>
+                  <c:v>Smaller Model parms, segments=512</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -783,7 +863,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.5M parms, feat. len. 512</c:v>
+                  <c:v>Large Model, segments=512</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -987,7 +1067,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>80k parms, feat. len. 1024</c:v>
+                  <c:v>Smaller Model parms, segments=1024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1191,7 +1271,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.5M parms, feat. len. 1024</c:v>
+                  <c:v>Large Model, segments=1024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1633,10 +1713,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.74737171968302107"/>
-          <c:y val="0.59046148737904203"/>
-          <c:w val="0.19190559582161179"/>
-          <c:h val="0.20467884567908015"/>
+          <c:x val="0.60523609236519738"/>
+          <c:y val="0.5015152535309888"/>
+          <c:w val="0.25931012011666221"/>
+          <c:h val="0.20670035099380862"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1750,7 +1830,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.5M, 1024, 100 Epoch, #1</c:v>
+                  <c:v>Large, 1024, 100 Epoch, #1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2092,7 +2172,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.5M, 1024, 100 Epoch, #2</c:v>
+                  <c:v>Large, 1024, 100 Epoch, #2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2434,7 +2514,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.5M, 1024, 100 Epoch, #3</c:v>
+                  <c:v>Large, 1024, 100 Epoch, #3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2776,7 +2856,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.5M, 1024, 100 Epoch, #4</c:v>
+                  <c:v>Large, 1024, 100 Epoch, #4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3118,7 +3198,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.5M, 1024, 100 Epoch, #5</c:v>
+                  <c:v>Large, 1024, 100 Epoch, #5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3460,7 +3540,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.5M, 252, 100 Epoch, #1</c:v>
+                  <c:v>Large, 252, 100 Epoch, #1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3802,7 +3882,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.5M, 252, 100 Epoch, #2</c:v>
+                  <c:v>Large, 252, 100 Epoch, #2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4146,7 +4226,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.5M, 252, 100 Epoch, #3</c:v>
+                  <c:v>Large, 252, 100 Epoch, #3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4490,7 +4570,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.5M, 252, 100 Epoch, #4</c:v>
+                  <c:v>Large, 252, 100 Epoch, #4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4834,7 +4914,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.5M, 252, 100 Epoch, #5</c:v>
+                  <c:v>Large, 252, 100 Epoch, #5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6671,12 +6751,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7528F41-804E-7E48-9733-826563A237B7}" name="Table1" displayName="Table1" ref="A1:F51" totalsRowShown="0">
   <autoFilter ref="A1:F51" xr:uid="{79D92982-3207-7049-8A9E-007E2456E835}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{827702AC-DB8D-5643-BCDA-8BB05A2BF87E}" name="80k parms, feat. len. 252"/>
-    <tableColumn id="3" xr3:uid="{F45270DC-9EB0-F741-A3FD-CD70B930B5C0}" name="2.5M parms, feat. len. 252"/>
-    <tableColumn id="7" xr3:uid="{C68F05C9-4F45-6741-B191-781D16B5FC04}" name="80k parms, feat. len. 512"/>
-    <tableColumn id="4" xr3:uid="{77683BC3-BF26-224D-8708-03A367D12606}" name="2.5M parms, feat. len. 512"/>
-    <tableColumn id="8" xr3:uid="{C661BF7A-415F-7148-8159-ABF5468081A4}" name="80k parms, feat. len. 1024"/>
-    <tableColumn id="5" xr3:uid="{161FB794-8ACB-1E42-9A1D-2D1530D1DDA0}" name="2.5M parms, feat. len. 1024"/>
+    <tableColumn id="1" xr3:uid="{827702AC-DB8D-5643-BCDA-8BB05A2BF87E}" name="Smaller Model parms, segments=252"/>
+    <tableColumn id="3" xr3:uid="{F45270DC-9EB0-F741-A3FD-CD70B930B5C0}" name="Large Model, segments=252"/>
+    <tableColumn id="7" xr3:uid="{C68F05C9-4F45-6741-B191-781D16B5FC04}" name="Smaller Model parms, segments=512"/>
+    <tableColumn id="4" xr3:uid="{77683BC3-BF26-224D-8708-03A367D12606}" name="Large Model, segments=512"/>
+    <tableColumn id="8" xr3:uid="{C661BF7A-415F-7148-8159-ABF5468081A4}" name="Smaller Model parms, segments=1024"/>
+    <tableColumn id="5" xr3:uid="{161FB794-8ACB-1E42-9A1D-2D1530D1DDA0}" name="Large Model, segments=1024"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6686,18 +6766,29 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{77B58BBF-E3CE-EA4A-B666-21C4B2546EEA}" name="Table13" displayName="Table13" ref="A1:J102" totalsRowShown="0">
   <autoFilter ref="A1:J102" xr:uid="{79D92982-3207-7049-8A9E-007E2456E835}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B3427008-7793-384E-8AB9-5524BC8848C0}" name="2.5M, 1024, 100 Epoch, #1"/>
-    <tableColumn id="3" xr3:uid="{024E4631-B962-DC4A-A43B-884355ECDDBE}" name="2.5M, 1024, 100 Epoch, #2"/>
-    <tableColumn id="7" xr3:uid="{C3A54F55-FD26-404D-B88A-D4237149B25E}" name="2.5M, 1024, 100 Epoch, #3"/>
-    <tableColumn id="4" xr3:uid="{87A99A2E-F145-D74F-9895-9669F29DE6A6}" name="2.5M, 1024, 100 Epoch, #4"/>
-    <tableColumn id="8" xr3:uid="{C3771930-0C4E-B347-B345-71E8F2D848A6}" name="2.5M, 1024, 100 Epoch, #5"/>
-    <tableColumn id="5" xr3:uid="{9702DCD8-ABB6-F244-87C2-83A39C1954BB}" name="2.5M, 252, 100 Epoch, #1"/>
-    <tableColumn id="10" xr3:uid="{B03179F7-3B20-CF4B-99E8-7480CD8F55B3}" name="2.5M, 252, 100 Epoch, #2"/>
-    <tableColumn id="11" xr3:uid="{B8FFB89E-DEE5-C64E-BC67-3D8C55312FB5}" name="2.5M, 252, 100 Epoch, #3"/>
-    <tableColumn id="12" xr3:uid="{AFD3C687-8B84-BA4D-B578-589DF89C086B}" name="2.5M, 252, 100 Epoch, #4"/>
-    <tableColumn id="13" xr3:uid="{B4FB0CF4-5230-714A-9D90-7EAD82E03C84}" name="2.5M, 252, 100 Epoch, #5"/>
+    <tableColumn id="1" xr3:uid="{B3427008-7793-384E-8AB9-5524BC8848C0}" name="Large, 1024, 100 Epoch, #1"/>
+    <tableColumn id="3" xr3:uid="{024E4631-B962-DC4A-A43B-884355ECDDBE}" name="Large, 1024, 100 Epoch, #2"/>
+    <tableColumn id="7" xr3:uid="{C3A54F55-FD26-404D-B88A-D4237149B25E}" name="Large, 1024, 100 Epoch, #3"/>
+    <tableColumn id="4" xr3:uid="{87A99A2E-F145-D74F-9895-9669F29DE6A6}" name="Large, 1024, 100 Epoch, #4"/>
+    <tableColumn id="8" xr3:uid="{C3771930-0C4E-B347-B345-71E8F2D848A6}" name="Large, 1024, 100 Epoch, #5"/>
+    <tableColumn id="5" xr3:uid="{9702DCD8-ABB6-F244-87C2-83A39C1954BB}" name="Large, 252, 100 Epoch, #1"/>
+    <tableColumn id="10" xr3:uid="{B03179F7-3B20-CF4B-99E8-7480CD8F55B3}" name="Large, 252, 100 Epoch, #2"/>
+    <tableColumn id="11" xr3:uid="{B8FFB89E-DEE5-C64E-BC67-3D8C55312FB5}" name="Large, 252, 100 Epoch, #3"/>
+    <tableColumn id="12" xr3:uid="{AFD3C687-8B84-BA4D-B578-589DF89C086B}" name="Large, 252, 100 Epoch, #4"/>
+    <tableColumn id="13" xr3:uid="{B4FB0CF4-5230-714A-9D90-7EAD82E03C84}" name="Large, 252, 100 Epoch, #5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{63BB2497-E72D-8C41-A482-8E6DCABB1763}" name="Table3" displayName="Table3" ref="A1:B4" totalsRowShown="0" dataDxfId="0" dataCellStyle="Comma">
+  <autoFilter ref="A1:B4" xr:uid="{97F5442B-8A37-DC40-84BE-AF10B4B4FBDD}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{450FBACE-C6CD-804C-8B68-FE9F2CFA1466}" name="segments" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{D410ED74-CEA3-CE4B-A295-0999F5D9F5B5}" name="Remaining Songs" dataDxfId="1" dataCellStyle="Comma"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -7001,7 +7092,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7016,22 +7107,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -8047,8 +8138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9B6F77-E557-6B48-9B37-C4BCEEDFEC01}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J101"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8063,34 +8154,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -11300,4 +11391,132 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E254176-DA85-C94E-B066-8CFB80D1D45D}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="E10:G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B2" s="1">
+        <v>587</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>512</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2049</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>252</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2243</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="34">
+      <c r="E10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="E11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4">
+        <v>60</v>
+      </c>
+      <c r="G11" s="4">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="E12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="4">
+        <v>60</v>
+      </c>
+      <c r="G12" s="4">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="E13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="4">
+        <v>60</v>
+      </c>
+      <c r="G13" s="4">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="E14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="4">
+        <v>30</v>
+      </c>
+      <c r="G14" s="4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="E15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="4">
+        <v>30</v>
+      </c>
+      <c r="G15" s="4">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>